--- a/hardmode-stats.xlsx
+++ b/hardmode-stats.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D354"/>
+  <dimension ref="A1:E354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +440,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>word</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>freq</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>hardmode_percent</t>
         </is>
@@ -454,15 +463,18 @@
       <c r="A2" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>slump</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>878659</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.01689197569142999</v>
       </c>
     </row>
@@ -470,15 +482,18 @@
       <c r="A3" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="n">
+        <v>44569</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>crank</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2185208</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.01736894476025339</v>
       </c>
     </row>
@@ -486,15 +501,18 @@
       <c r="A4" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="n">
+        <v>44570</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>gorge</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1950264</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.0209123604840561</v>
       </c>
     </row>
@@ -502,15 +520,18 @@
       <c r="A5" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>31284313</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.02092706330389979</v>
       </c>
     </row>
@@ -518,15 +539,18 @@
       <c r="A6" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="n">
+        <v>44572</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>drink</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>29254937</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.01960618663893943</v>
       </c>
     </row>
@@ -534,15 +558,18 @@
       <c r="A7" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>abbey</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>4224864</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.02520229646037702</v>
       </c>
     </row>
@@ -550,15 +577,18 @@
       <c r="A8" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="n">
+        <v>44575</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>tangy</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>333638</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.02351254395695169</v>
       </c>
     </row>
@@ -566,15 +596,18 @@
       <c r="A9" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="n">
+        <v>44576</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>panic</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>6396440</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.02261025840295318</v>
       </c>
     </row>
@@ -582,15 +615,18 @@
       <c r="A10" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="n">
+        <v>44577</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>solar</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>20423792</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.02363925213134932</v>
       </c>
     </row>
@@ -598,15 +634,18 @@
       <c r="A11" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>shire</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>2665081</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.02538288095698862</v>
       </c>
     </row>
@@ -614,15 +653,18 @@
       <c r="A12" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="n">
+        <v>44579</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>proxy</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>10773043</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.0280878026702874</v>
       </c>
     </row>
@@ -630,15 +672,18 @@
       <c r="A13" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>point</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>175527859</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.02527955755429011</v>
       </c>
     </row>
@@ -646,15 +691,18 @@
       <c r="A14" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>robot</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>12656312</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.02700808315981046</v>
       </c>
     </row>
@@ -662,15 +710,18 @@
       <c r="A15" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="2" t="n">
+        <v>44582</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>prick</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>891337</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.02706711431462735</v>
       </c>
     </row>
@@ -678,15 +729,18 @@
       <c r="A16" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="2" t="n">
+        <v>44583</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>wince</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>717079</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.02836568125256223</v>
       </c>
     </row>
@@ -694,15 +748,18 @@
       <c r="A17" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="2" t="n">
+        <v>44584</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>crimp</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>640746</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.02826669235243342</v>
       </c>
     </row>
@@ -710,15 +767,18 @@
       <c r="A18" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>knoll</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>965905</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0322316868058193</v>
       </c>
     </row>
@@ -726,15 +786,18 @@
       <c r="A19" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="2" t="n">
+        <v>44586</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>sugar</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>22450333</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.03150460919523596</v>
       </c>
     </row>
@@ -742,15 +805,18 @@
       <c r="A20" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>whack</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>725891</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.03361358434651461</v>
       </c>
     </row>
@@ -758,15 +824,18 @@
       <c r="A21" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="n">
+        <v>44588</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>mount</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>36648260</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.03450717807162402</v>
       </c>
     </row>
@@ -774,15 +843,18 @@
       <c r="A22" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="n">
+        <v>44589</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>perky</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>1360009</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0.03753939818431615</v>
       </c>
     </row>
@@ -790,15 +862,18 @@
       <c r="A23" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="n">
+        <v>44590</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>could</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>302311431</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>0.03700913096226294</v>
       </c>
     </row>
@@ -806,15 +881,18 @@
       <c r="A24" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="n">
+        <v>44591</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>wrung</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>121159</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0.03910589880110083</v>
       </c>
     </row>
@@ -822,15 +900,18 @@
       <c r="A25" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>126699632</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>0.03910475398020591</v>
       </c>
     </row>
@@ -838,15 +919,18 @@
       <c r="A26" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>those</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>270014141</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>0.03869045080090883</v>
       </c>
     </row>
@@ -854,15 +938,18 @@
       <c r="A27" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="n">
+        <v>44594</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>moist</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>2140516</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>0.03925030670778209</v>
       </c>
     </row>
@@ -870,15 +957,18 @@
       <c r="A28" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>shard</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>287428</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>0.04078721075672295</v>
       </c>
     </row>
@@ -886,15 +976,18 @@
       <c r="A29" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="n">
+        <v>44596</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>pleat</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>266830</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0.04118394457279963</v>
       </c>
     </row>
@@ -902,15 +995,18 @@
       <c r="A30" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="n">
+        <v>44597</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>aloft</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>497342</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>0.04287796608048846</v>
       </c>
     </row>
@@ -918,15 +1014,18 @@
       <c r="A31" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="n">
+        <v>44598</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>skill</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>15835076</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>0.04410034145933676</v>
       </c>
     </row>
@@ -934,15 +1033,18 @@
       <c r="A32" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>elder</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>7299470</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>0.04628280389136378</v>
       </c>
     </row>
@@ -950,15 +1052,18 @@
       <c r="A33" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>frame</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>46079991</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>0.04570896632127434</v>
       </c>
     </row>
@@ -966,15 +1071,18 @@
       <c r="A34" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>humor</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>18085495</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>0.04534141964554707</v>
       </c>
     </row>
@@ -982,15 +1090,18 @@
       <c r="A35" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>pause</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>4606318</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>0.04422136928779976</v>
       </c>
     </row>
@@ -998,15 +1109,18 @@
       <c r="A36" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>ulcer</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>1336605</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>0.03812772123116209</v>
       </c>
     </row>
@@ -1014,15 +1128,18 @@
       <c r="A37" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>ultra</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>21795075</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>0.0344961742964596</v>
       </c>
     </row>
@@ -1030,15 +1147,18 @@
       <c r="A38" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>robin</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>11423944</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>0.01170933178602448</v>
       </c>
     </row>
@@ -1046,15 +1166,18 @@
       <c r="A39" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>cynic</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>525906</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>0.03954940521028904</v>
       </c>
     </row>
@@ -1062,15 +1185,18 @@
       <c r="A40" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="n">
+        <v>44607</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>aroma</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>2018777</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>0.03593365666560124</v>
       </c>
     </row>
@@ -1078,15 +1204,18 @@
       <c r="A41" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>caulk</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>245944</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>0.03707014679640067</v>
       </c>
     </row>
@@ -1094,15 +1223,18 @@
       <c r="A42" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>6839319</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>0.03733008189986638</v>
       </c>
     </row>
@@ -1110,15 +1242,18 @@
       <c r="A43" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="n">
+        <v>44610</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>dodge</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>14768509</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>0.03853143214773147</v>
       </c>
     </row>
@@ -1126,15 +1261,18 @@
       <c r="A44" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="n">
+        <v>44611</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>swill</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>92032</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>0.03981553305209916</v>
       </c>
     </row>
@@ -1142,15 +1280,18 @@
       <c r="A45" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="n">
+        <v>44612</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>tacit</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>594255</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>0.04059186406445522</v>
       </c>
     </row>
@@ -1158,15 +1299,18 @@
       <c r="A46" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>978481319</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>0.03905916457085864</v>
       </c>
     </row>
@@ -1174,15 +1318,18 @@
       <c r="A47" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="2" t="n">
+        <v>44614</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>thorn</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>1421673</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>0.03856297901787463</v>
       </c>
     </row>
@@ -1190,15 +1337,18 @@
       <c r="A48" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>trove</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>702353</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>0.0411094619131337</v>
       </c>
     </row>
@@ -1206,15 +1356,18 @@
       <c r="A49" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>bloke</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>766763</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>0.04150809417809585</v>
       </c>
     </row>
@@ -1222,15 +1375,18 @@
       <c r="A50" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>vivid</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>4479514</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>0.04566893441758139</v>
       </c>
     </row>
@@ -1238,15 +1394,18 @@
       <c r="A51" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="n">
+        <v>44618</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>spill</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>3890646</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>0.0406139400796415</v>
       </c>
     </row>
@@ -1254,15 +1413,18 @@
       <c r="A52" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="n">
+        <v>44619</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>chant</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>1374428</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>0.04168313945362261</v>
       </c>
     </row>
@@ -1270,15 +1432,18 @@
       <c r="A53" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>choke</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>1448146</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>0.04190064278716337</v>
       </c>
     </row>
@@ -1286,15 +1451,18 @@
       <c r="A54" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>rupee</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>2831536</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>0.04404569058495775</v>
       </c>
     </row>
@@ -1302,15 +1470,18 @@
       <c r="A55" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>nasty</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>7434847</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>0.04202422037745236</v>
       </c>
     </row>
@@ -1318,15 +1489,18 @@
       <c r="A56" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>mourn</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>779010</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>0.04360089659942171</v>
       </c>
     </row>
@@ -1334,15 +1508,18 @@
       <c r="A57" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>ahead</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>28375319</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>0.0461198645265793</v>
       </c>
     </row>
@@ -1350,15 +1527,18 @@
       <c r="A58" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="n">
+        <v>44625</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>brine</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>816003</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>0.04525979251397377</v>
       </c>
     </row>
@@ -1366,15 +1546,18 @@
       <c r="A59" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="n">
+        <v>44626</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>cloth</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>9764137</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>0.04533955488460395</v>
       </c>
     </row>
@@ -1382,15 +1565,18 @@
       <c r="A60" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>hoard</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>433375</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>0.04493698392003477</v>
       </c>
     </row>
@@ -1398,15 +1584,18 @@
       <c r="A61" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>sweet</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>32311923</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>0.0470760050705393</v>
       </c>
     </row>
@@ -1414,15 +1603,18 @@
       <c r="A62" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>123027963</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>0.04675444377821496</v>
       </c>
     </row>
@@ -1430,15 +1622,18 @@
       <c r="A63" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>lapse</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>1459542</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>0.04768196702476015</v>
       </c>
     </row>
@@ -1446,15 +1641,18 @@
       <c r="A64" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>watch</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>92006970</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>0.05478265863776734</v>
       </c>
     </row>
@@ -1462,15 +1660,18 @@
       <c r="A65" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="2" t="n">
+        <v>44632</v>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>today</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>239271204</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>0.04870111273685362</v>
       </c>
     </row>
@@ -1478,15 +1679,18 @@
       <c r="A66" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="n">
+        <v>44633</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>focus</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>65626732</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>0.0498060589848191</v>
       </c>
     </row>
@@ -1494,15 +1698,18 @@
       <c r="A67" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>smelt</t>
         </is>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>301053</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>0.05055391950638059</v>
       </c>
     </row>
@@ -1510,15 +1717,18 @@
       <c r="A68" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>tease</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>2019275</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>0.0494146064923221</v>
       </c>
     </row>
@@ -1526,15 +1736,18 @@
       <c r="A69" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>cater</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>2092828</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>0.05156617215041128</v>
       </c>
     </row>
@@ -1542,15 +1755,18 @@
       <c r="A70" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>movie</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>158421100</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>0.05232712883936334</v>
       </c>
     </row>
@@ -1558,15 +1774,18 @@
       <c r="A71" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>saute</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>546457</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>0.0517377523216371</v>
       </c>
     </row>
@@ -1574,15 +1793,18 @@
       <c r="A72" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="2" t="n">
+        <v>44639</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>allow</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>67052567</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>0.05447473306421173</v>
       </c>
     </row>
@@ -1590,15 +1812,18 @@
       <c r="A73" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="2" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>renew</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>6561081</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>0.05430778065257086</v>
       </c>
     </row>
@@ -1606,15 +1831,18 @@
       <c r="A74" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>their</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>782849411</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>0.05298440415582022</v>
       </c>
     </row>
@@ -1622,15 +1850,18 @@
       <c r="A75" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>slosh</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>51634</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>0.05498841790448361</v>
       </c>
     </row>
@@ -1638,15 +1869,18 @@
       <c r="A76" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>purge</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>1366135</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>0.05456516886181714</v>
       </c>
     </row>
@@ -1654,15 +1888,18 @@
       <c r="A77" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>chest</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>13516414</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>0.05511457064105142</v>
       </c>
     </row>
@@ -1670,15 +1907,18 @@
       <c r="A78" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>depot</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>9688338</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>0.05700513325832074</v>
       </c>
     </row>
@@ -1686,15 +1926,18 @@
       <c r="A79" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>epoxy</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>1908076</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>0.06271278267907188</v>
       </c>
     </row>
@@ -1702,15 +1945,18 @@
       <c r="A80" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="n">
+        <v>44647</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>nymph</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>697326</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>0.0600418207750139</v>
       </c>
     </row>
@@ -1718,15 +1964,18 @@
       <c r="A81" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>found</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>232005894</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>0.06110100405305822</v>
       </c>
     </row>
@@ -1734,15 +1983,18 @@
       <c r="A82" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>shall</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>191963867</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>0.05697994230898236</v>
       </c>
     </row>
@@ -1750,15 +2002,18 @@
       <c r="A83" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>stove</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>3914849</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>0.05892284635668621</v>
       </c>
     </row>
@@ -1766,15 +2021,18 @@
       <c r="A84" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>lowly</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>543486</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>0.06263173074789785</v>
       </c>
     </row>
@@ -1782,15 +2040,18 @@
       <c r="A85" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>snout</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>258314</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>0.06161854985896797</v>
       </c>
     </row>
@@ -1798,15 +2059,18 @@
       <c r="A86" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>trope</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>109419</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>0.06006615982821659</v>
       </c>
     </row>
@@ -1814,15 +2078,18 @@
       <c r="A87" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>fewer</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>10792786</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>0.063686442038994</v>
       </c>
     </row>
@@ -1830,15 +2097,18 @@
       <c r="A88" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>shawl</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>1011728</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>0.06126447154283422</v>
       </c>
     </row>
@@ -1846,15 +2116,18 @@
       <c r="A89" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>natal</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>3010028</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>0.06346616566135997</v>
       </c>
     </row>
@@ -1862,15 +2135,18 @@
       <c r="A90" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>comma</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>2711522</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>0.0641460765680152</v>
       </c>
     </row>
@@ -1878,15 +2154,18 @@
       <c r="A91" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>foray</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>499808</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>0.06432520104279006</v>
       </c>
     </row>
@@ -1894,15 +2173,18 @@
       <c r="A92" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>scare</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>2972708</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>0.06382918431828165</v>
       </c>
     </row>
@@ -1910,15 +2192,18 @@
       <c r="A93" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="n">
+        <v>44660</v>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>stair</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>2012524</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>0.06360926905595708</v>
       </c>
     </row>
@@ -1926,15 +2211,18 @@
       <c r="A94" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="n">
+        <v>44661</v>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>244690155</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>0.06253119034228183</v>
       </c>
     </row>
@@ -1942,15 +2230,18 @@
       <c r="A95" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>squad</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>8744772</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>0.06588483811050005</v>
       </c>
     </row>
@@ -1958,15 +2249,18 @@
       <c r="A96" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>royal</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>45407189</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>0.06331206976076305</v>
       </c>
     </row>
@@ -1974,15 +2268,18 @@
       <c r="A97" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>chunk</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>2371231</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>0.06356740091679851</v>
       </c>
     </row>
@@ -1990,15 +2287,18 @@
       <c r="A98" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>mince</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>328039</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>0.06484027924687963</v>
       </c>
     </row>
@@ -2006,15 +2306,18 @@
       <c r="A99" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>shame</t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>6785296</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>0.06555838481125617</v>
       </c>
     </row>
@@ -2022,15 +2325,18 @@
       <c r="A100" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="n">
+        <v>44667</v>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>cheek</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>2681029</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>0.06514673062498264</v>
       </c>
     </row>
@@ -2038,15 +2344,18 @@
       <c r="A101" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="n">
+        <v>44668</v>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>ample</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>3187842</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>0.0656911727486619</v>
       </c>
     </row>
@@ -2054,15 +2363,18 @@
       <c r="A102" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>flair</t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>1924190</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>0.06532126745148288</v>
       </c>
     </row>
@@ -2070,15 +2382,18 @@
       <c r="A103" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>foyer</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>1042532</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>0.07528076474531446</v>
       </c>
     </row>
@@ -2086,15 +2401,18 @@
       <c r="A104" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="C104" t="inlineStr">
         <is>
           <t>cargo</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>9748668</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>0.06662287882204163</v>
       </c>
     </row>
@@ -2102,15 +2420,18 @@
       <c r="A105" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>oxide</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>5321340</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>0.07105303455668419</v>
       </c>
     </row>
@@ -2118,15 +2439,18 @@
       <c r="A106" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="C106" t="inlineStr">
         <is>
           <t>plant</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>53247607</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>0.06483997584541062</v>
       </c>
     </row>
@@ -2134,15 +2458,18 @@
       <c r="A107" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="n">
+        <v>44674</v>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>olive</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>9298184</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>0.06783030911868734</v>
       </c>
     </row>
@@ -2150,15 +2477,18 @@
       <c r="A108" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="2" t="n">
+        <v>44675</v>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>inert</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>935898</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>0.06919303862414317</v>
       </c>
     </row>
@@ -2166,15 +2496,18 @@
       <c r="A109" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>askew</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>473664</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>0.07153624328221261</v>
       </c>
     </row>
@@ -2182,15 +2515,18 @@
       <c r="A110" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="C110" t="inlineStr">
         <is>
           <t>heist</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>419629</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>0.0662123253807451</v>
       </c>
     </row>
@@ -2198,15 +2534,18 @@
       <c r="A111" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>shown</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>68755779</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>0.06632513868259117</v>
       </c>
     </row>
@@ -2214,15 +2553,18 @@
       <c r="A112" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>zesty</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>210124</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>0.07097579068042349</v>
       </c>
     </row>
@@ -2230,15 +2572,18 @@
       <c r="A113" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="C113" t="inlineStr">
         <is>
           <t>larva</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>462298</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>0.07371363362439255</v>
       </c>
     </row>
@@ -2246,15 +2591,18 @@
       <c r="A114" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C114" t="inlineStr">
         <is>
           <t>forgo</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>340426</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>0.07338587138478972</v>
       </c>
     </row>
@@ -2262,15 +2610,18 @@
       <c r="A115" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="C115" t="inlineStr">
         <is>
           <t>story</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>138433809</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>0.06827472998546678</v>
       </c>
     </row>
@@ -2278,15 +2629,18 @@
       <c r="A116" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>hairy</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="D116" t="n">
         <v>19060619</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>0.06922870759872753</v>
       </c>
     </row>
@@ -2294,15 +2648,18 @@
       <c r="A117" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>train</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>31816971</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>0.06722041763341068</v>
       </c>
     </row>
@@ -2310,15 +2667,18 @@
       <c r="A118" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="C118" t="inlineStr">
         <is>
           <t>homer</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>4281428</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>0.07342490608171763</v>
       </c>
     </row>
@@ -2326,15 +2686,18 @@
       <c r="A119" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="C119" t="inlineStr">
         <is>
           <t>badge</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>6145138</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>0.07185550254286163</v>
       </c>
     </row>
@@ -2342,15 +2705,18 @@
       <c r="A120" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="n">
+        <v>44688</v>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t>midst</t>
         </is>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>3381410</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>0.07028123237261275</v>
       </c>
     </row>
@@ -2358,15 +2724,18 @@
       <c r="A121" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="n">
+        <v>44689</v>
+      </c>
+      <c r="C121" t="inlineStr">
         <is>
           <t>canny</t>
         </is>
       </c>
-      <c r="C121" t="n">
+      <c r="D121" t="n">
         <v>209480</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>0.07247855704790535</v>
       </c>
     </row>
@@ -2374,15 +2743,18 @@
       <c r="A122" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="C122" t="inlineStr">
         <is>
           <t>shine</t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="D122" t="n">
         <v>5881862</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>0.06910898214366032</v>
       </c>
     </row>
@@ -2390,15 +2762,18 @@
       <c r="A123" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="C123" t="inlineStr">
         <is>
           <t>gecko</t>
         </is>
       </c>
-      <c r="C123" t="n">
+      <c r="D123" t="n">
         <v>1230211</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>0.07376498414234263</v>
       </c>
     </row>
@@ -2406,15 +2781,18 @@
       <c r="A124" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="C124" t="inlineStr">
         <is>
           <t>farce</t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="D124" t="n">
         <v>727546</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>0.07159580092138056</v>
       </c>
     </row>
@@ -2422,15 +2800,18 @@
       <c r="A125" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="C125" t="inlineStr">
         <is>
           <t>slung</t>
         </is>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>253265</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>0.07161074623709909</v>
       </c>
     </row>
@@ -2438,15 +2819,18 @@
       <c r="A126" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>tipsy</t>
         </is>
       </c>
-      <c r="C126" t="n">
+      <c r="D126" t="n">
         <v>279464</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>0.07117355158858027</v>
       </c>
     </row>
@@ -2454,15 +2838,18 @@
       <c r="A127" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="n">
+        <v>44695</v>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>metal</t>
         </is>
       </c>
-      <c r="C127" t="n">
+      <c r="D127" t="n">
         <v>56181783</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>0.07224308637760328</v>
       </c>
     </row>
@@ -2470,15 +2857,18 @@
       <c r="A128" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="n">
+        <v>44696</v>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>yield</t>
         </is>
       </c>
-      <c r="C128" t="n">
+      <c r="D128" t="n">
         <v>15022494</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>0.07394770170602696</v>
       </c>
     </row>
@@ -2486,15 +2876,18 @@
       <c r="A129" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="C129" t="inlineStr">
         <is>
           <t>delve</t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="D129" t="n">
         <v>640909</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E129" t="n">
         <v>0.07577287158553893</v>
       </c>
     </row>
@@ -2502,15 +2895,18 @@
       <c r="A130" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="C130" t="inlineStr">
         <is>
           <t>being</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="D130" t="n">
         <v>242783091</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>0.07270721981844405</v>
       </c>
     </row>
@@ -2518,15 +2914,18 @@
       <c r="A131" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="C131" t="inlineStr">
         <is>
           <t>scour</t>
         </is>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>411478</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>0.07498681238418568</v>
       </c>
     </row>
@@ -2534,15 +2933,18 @@
       <c r="A132" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C132" t="inlineStr">
         <is>
           <t>glass</t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="D132" t="n">
         <v>63559754</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>0.07278623801466441</v>
       </c>
     </row>
@@ -2550,15 +2952,18 @@
       <c r="A133" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="C133" t="inlineStr">
         <is>
           <t>gamer</t>
         </is>
       </c>
-      <c r="C133" t="n">
+      <c r="D133" t="n">
         <v>3144985</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>0.07495277889073322</v>
       </c>
     </row>
@@ -2566,15 +2971,18 @@
       <c r="A134" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="n">
+        <v>44702</v>
+      </c>
+      <c r="C134" t="inlineStr">
         <is>
           <t>scrap</t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="D134" t="n">
         <v>3757085</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>0.07443050857604694</v>
       </c>
     </row>
@@ -2582,15 +2990,18 @@
       <c r="A135" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="n">
+        <v>44703</v>
+      </c>
+      <c r="C135" t="inlineStr">
         <is>
           <t>money</t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="D135" t="n">
         <v>190205072</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>0.07256770089384323</v>
       </c>
     </row>
@@ -2598,15 +3009,18 @@
       <c r="A136" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="C136" t="inlineStr">
         <is>
           <t>hinge</t>
         </is>
       </c>
-      <c r="C136" t="n">
+      <c r="D136" t="n">
         <v>1758893</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>0.0738510635095061</v>
       </c>
     </row>
@@ -2614,15 +3028,18 @@
       <c r="A137" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="C137" t="inlineStr">
         <is>
           <t>album</t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="D137" t="n">
         <v>77914316</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>0.07587567055853582</v>
       </c>
     </row>
@@ -2630,15 +3047,18 @@
       <c r="A138" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="C138" t="inlineStr">
         <is>
           <t>vouch</t>
         </is>
       </c>
-      <c r="C138" t="n">
+      <c r="D138" t="n">
         <v>388963</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>0.07708496085965276</v>
       </c>
     </row>
@@ -2646,15 +3066,18 @@
       <c r="A139" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="C139" t="inlineStr">
         <is>
           <t>asset</t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="D139" t="n">
         <v>18178753</v>
       </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
         <v>0.07490346268278787</v>
       </c>
     </row>
@@ -2662,15 +3085,18 @@
       <c r="A140" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="C140" t="inlineStr">
         <is>
           <t>tiara</t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="D140" t="n">
         <v>923335</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>0.07583873696081195</v>
       </c>
     </row>
@@ -2678,15 +3104,18 @@
       <c r="A141" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="n">
+        <v>44709</v>
+      </c>
+      <c r="C141" t="inlineStr">
         <is>
           <t>crept</t>
         </is>
       </c>
-      <c r="C141" t="n">
+      <c r="D141" t="n">
         <v>588735</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>0.07594599543857897</v>
       </c>
     </row>
@@ -2694,15 +3123,18 @@
       <c r="A142" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="n">
+        <v>44710</v>
+      </c>
+      <c r="C142" t="inlineStr">
         <is>
           <t>bayou</t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="D142" t="n">
         <v>1397958</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>0.07802741075669875</v>
       </c>
     </row>
@@ -2710,15 +3142,18 @@
       <c r="A143" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>atoll</t>
         </is>
       </c>
-      <c r="C143" t="n">
+      <c r="D143" t="n">
         <v>908471</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>0.07776082927389329</v>
       </c>
     </row>
@@ -2726,15 +3161,18 @@
       <c r="A144" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="C144" t="inlineStr">
         <is>
           <t>manor</t>
         </is>
       </c>
-      <c r="C144" t="n">
+      <c r="D144" t="n">
         <v>7084688</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>0.07650395105786388</v>
       </c>
     </row>
@@ -2742,15 +3180,18 @@
       <c r="A145" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C145" t="inlineStr">
         <is>
           <t>creak</t>
         </is>
       </c>
-      <c r="C145" t="n">
+      <c r="D145" t="n">
         <v>124122</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>0.07585269050141522</v>
       </c>
     </row>
@@ -2758,15 +3199,18 @@
       <c r="A146" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>showy</t>
         </is>
       </c>
-      <c r="C146" t="n">
+      <c r="D146" t="n">
         <v>294798</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>0.07784196612160971</v>
       </c>
     </row>
@@ -2774,15 +3218,18 @@
       <c r="A147" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t>peach</t>
         </is>
       </c>
-      <c r="C147" t="n">
+      <c r="D147" t="n">
         <v>3938068</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>0.0757591967110391</v>
       </c>
     </row>
@@ -2790,15 +3237,18 @@
       <c r="A148" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" s="2" t="n">
+        <v>44716</v>
+      </c>
+      <c r="C148" t="inlineStr">
         <is>
           <t>froth</t>
         </is>
       </c>
-      <c r="C148" t="n">
+      <c r="D148" t="n">
         <v>278469</v>
       </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
         <v>0.07606886016854608</v>
       </c>
     </row>
@@ -2806,15 +3256,18 @@
       <c r="A149" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="2" t="n">
+        <v>44717</v>
+      </c>
+      <c r="C149" t="inlineStr">
         <is>
           <t>depth</t>
         </is>
       </c>
-      <c r="C149" t="n">
+      <c r="D149" t="n">
         <v>31879926</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>0.07629807183897917</v>
       </c>
     </row>
@@ -2822,15 +3275,18 @@
       <c r="A150" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="C150" t="inlineStr">
         <is>
           <t>gloom</t>
         </is>
       </c>
-      <c r="C150" t="n">
+      <c r="D150" t="n">
         <v>878018</v>
       </c>
-      <c r="D150" t="n">
+      <c r="E150" t="n">
         <v>0.07777283764834639</v>
       </c>
     </row>
@@ -2838,15 +3294,18 @@
       <c r="A151" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="C151" t="inlineStr">
         <is>
           <t>flood</t>
         </is>
       </c>
-      <c r="C151" t="n">
+      <c r="D151" t="n">
         <v>13979267</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
         <v>0.07526571849943212</v>
       </c>
     </row>
@@ -2854,15 +3313,18 @@
       <c r="A152" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="C152" t="inlineStr">
         <is>
           <t>trait</t>
         </is>
       </c>
-      <c r="C152" t="n">
+      <c r="D152" t="n">
         <v>1705417</v>
       </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
         <v>0.07549241306983909</v>
       </c>
     </row>
@@ -2870,15 +3332,18 @@
       <c r="A153" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>girth</t>
         </is>
       </c>
-      <c r="C153" t="n">
+      <c r="D153" t="n">
         <v>492919</v>
       </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
         <v>0.07772409196934356</v>
       </c>
     </row>
@@ -2886,15 +3351,18 @@
       <c r="A154" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="C154" t="inlineStr">
         <is>
           <t>piety</t>
         </is>
       </c>
-      <c r="C154" t="n">
+      <c r="D154" t="n">
         <v>595389</v>
       </c>
-      <c r="D154" t="n">
+      <c r="E154" t="n">
         <v>0.07808436867957237</v>
       </c>
     </row>
@@ -2902,15 +3370,18 @@
       <c r="A155" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="2" t="n">
+        <v>44723</v>
+      </c>
+      <c r="C155" t="inlineStr">
         <is>
           <t>goose</t>
         </is>
       </c>
-      <c r="C155" t="n">
+      <c r="D155" t="n">
         <v>3739382</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>0.0786596866700027</v>
       </c>
     </row>
@@ -2918,15 +3389,18 @@
       <c r="A156" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="2" t="n">
+        <v>44724</v>
+      </c>
+      <c r="C156" t="inlineStr">
         <is>
           <t>float</t>
         </is>
       </c>
-      <c r="C156" t="n">
+      <c r="D156" t="n">
         <v>8808655</v>
       </c>
-      <c r="D156" t="n">
+      <c r="E156" t="n">
         <v>0.07626490720485499</v>
       </c>
     </row>
@@ -2934,15 +3408,18 @@
       <c r="A157" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="C157" t="inlineStr">
         <is>
           <t>donor</t>
         </is>
       </c>
-      <c r="C157" t="n">
+      <c r="D157" t="n">
         <v>7096675</v>
       </c>
-      <c r="D157" t="n">
+      <c r="E157" t="n">
         <v>0.07698598565109104</v>
       </c>
     </row>
@@ -2950,15 +3427,18 @@
       <c r="A158" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="C158" t="inlineStr">
         <is>
           <t>atone</t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="D158" t="n">
         <v>152901</v>
       </c>
-      <c r="D158" t="n">
+      <c r="E158" t="n">
         <v>0.0794090181430096</v>
       </c>
     </row>
@@ -2966,15 +3446,18 @@
       <c r="A159" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="C159" t="inlineStr">
         <is>
           <t>primo</t>
         </is>
       </c>
-      <c r="C159" t="n">
+      <c r="D159" t="n">
         <v>912120</v>
       </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
         <v>0.07842611941631392</v>
       </c>
     </row>
@@ -2982,15 +3465,18 @@
       <c r="A160" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="C160" t="inlineStr">
         <is>
           <t>apron</t>
         </is>
       </c>
-      <c r="C160" t="n">
+      <c r="D160" t="n">
         <v>1617357</v>
       </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
         <v>0.0769605090772974</v>
       </c>
     </row>
@@ -2998,15 +3484,18 @@
       <c r="A161" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="C161" t="inlineStr">
         <is>
           <t>blown</t>
         </is>
       </c>
-      <c r="C161" t="n">
+      <c r="D161" t="n">
         <v>4229918</v>
       </c>
-      <c r="D161" t="n">
+      <c r="E161" t="n">
         <v>0.07776456599286563</v>
       </c>
     </row>
@@ -3014,15 +3503,18 @@
       <c r="A162" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="n">
+        <v>44730</v>
+      </c>
+      <c r="C162" t="inlineStr">
         <is>
           <t>cacao</t>
         </is>
       </c>
-      <c r="C162" t="n">
+      <c r="D162" t="n">
         <v>331714</v>
       </c>
-      <c r="D162" t="n">
+      <c r="E162" t="n">
         <v>0.08687639021290118</v>
       </c>
     </row>
@@ -3030,15 +3522,18 @@
       <c r="A163" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="n">
+        <v>44731</v>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t>loser</t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="D163" t="n">
         <v>2529180</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E163" t="n">
         <v>0.07946314059141242</v>
       </c>
     </row>
@@ -3046,15 +3541,18 @@
       <c r="A164" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="C164" t="n">
+      <c r="D164" t="n">
         <v>57191675</v>
       </c>
-      <c r="D164" t="n">
+      <c r="E164" t="n">
         <v>0.07824261152048173</v>
       </c>
     </row>
@@ -3062,15 +3560,18 @@
       <c r="A165" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B165" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t>gloat</t>
         </is>
       </c>
-      <c r="C165" t="n">
+      <c r="D165" t="n">
         <v>113594</v>
       </c>
-      <c r="D165" t="n">
+      <c r="E165" t="n">
         <v>0.0786247234824341</v>
       </c>
     </row>
@@ -3078,15 +3579,18 @@
       <c r="A166" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B166" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>awful</t>
         </is>
       </c>
-      <c r="C166" t="n">
+      <c r="D166" t="n">
         <v>5217370</v>
       </c>
-      <c r="D166" t="n">
+      <c r="E166" t="n">
         <v>0.0810368349249659</v>
       </c>
     </row>
@@ -3094,15 +3598,18 @@
       <c r="A167" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B167" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="C167" t="inlineStr">
         <is>
           <t>brink</t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
         <v>1484879</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>0.0775357270621905</v>
       </c>
     </row>
@@ -3110,15 +3617,18 @@
       <c r="A168" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="C168" t="inlineStr">
         <is>
           <t>smite</t>
         </is>
       </c>
-      <c r="C168" t="n">
+      <c r="D168" t="n">
         <v>270393</v>
       </c>
-      <c r="D168" t="n">
+      <c r="E168" t="n">
         <v>0.07884702767844795</v>
       </c>
     </row>
@@ -3126,15 +3636,18 @@
       <c r="A169" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="n">
+        <v>44737</v>
+      </c>
+      <c r="C169" t="inlineStr">
         <is>
           <t>beady</t>
         </is>
       </c>
-      <c r="C169" t="n">
+      <c r="D169" t="n">
         <v>87974</v>
       </c>
-      <c r="D169" t="n">
+      <c r="E169" t="n">
         <v>0.07962854477207143</v>
       </c>
     </row>
@@ -3142,15 +3655,18 @@
       <c r="A170" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="n">
+        <v>44738</v>
+      </c>
+      <c r="C170" t="inlineStr">
         <is>
           <t>rusty</t>
         </is>
       </c>
-      <c r="C170" t="n">
+      <c r="D170" t="n">
         <v>2780895</v>
       </c>
-      <c r="D170" t="n">
+      <c r="E170" t="n">
         <v>0.07837462834489593</v>
       </c>
     </row>
@@ -3158,15 +3674,18 @@
       <c r="A171" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="C171" t="inlineStr">
         <is>
           <t>retro</t>
         </is>
       </c>
-      <c r="C171" t="n">
+      <c r="D171" t="n">
         <v>8000179</v>
       </c>
-      <c r="D171" t="n">
+      <c r="E171" t="n">
         <v>0.08019005543283457</v>
       </c>
     </row>
@@ -3174,15 +3693,18 @@
       <c r="A172" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C172" t="inlineStr">
         <is>
           <t>droll</t>
         </is>
       </c>
-      <c r="C172" t="n">
+      <c r="D172" t="n">
         <v>196087</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>0.08124788637132228</v>
       </c>
     </row>
@@ -3190,15 +3712,18 @@
       <c r="A173" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="C173" t="inlineStr">
         <is>
           <t>gawky</t>
         </is>
       </c>
-      <c r="C173" t="n">
+      <c r="D173" t="n">
         <v>31136</v>
       </c>
-      <c r="D173" t="n">
+      <c r="E173" t="n">
         <v>0.08669076569175156</v>
       </c>
     </row>
@@ -3206,15 +3731,18 @@
       <c r="A174" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="C174" t="inlineStr">
         <is>
           <t>hutch</t>
         </is>
       </c>
-      <c r="C174" t="n">
+      <c r="D174" t="n">
         <v>1373107</v>
       </c>
-      <c r="D174" t="n">
+      <c r="E174" t="n">
         <v>0.08499954763412648</v>
       </c>
     </row>
@@ -3222,15 +3750,18 @@
       <c r="A175" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C175" t="inlineStr">
         <is>
           <t>pinto</t>
         </is>
       </c>
-      <c r="C175" t="n">
+      <c r="D175" t="n">
         <v>1108872</v>
       </c>
-      <c r="D175" t="n">
+      <c r="E175" t="n">
         <v>0.08025736539112767</v>
       </c>
     </row>
@@ -3238,15 +3769,18 @@
       <c r="A176" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="n">
+        <v>44744</v>
+      </c>
+      <c r="C176" t="inlineStr">
         <is>
           <t>egret</t>
         </is>
       </c>
-      <c r="C176" t="n">
+      <c r="D176" t="n">
         <v>394773</v>
       </c>
-      <c r="D176" t="n">
+      <c r="E176" t="n">
         <v>0.08416137914521729</v>
       </c>
     </row>
@@ -3254,15 +3788,18 @@
       <c r="A177" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="n">
+        <v>44745</v>
+      </c>
+      <c r="C177" t="inlineStr">
         <is>
           <t>lilac</t>
         </is>
       </c>
-      <c r="C177" t="n">
+      <c r="D177" t="n">
         <v>1738684</v>
       </c>
-      <c r="D177" t="n">
+      <c r="E177" t="n">
         <v>0.08548634095736798</v>
       </c>
     </row>
@@ -3270,15 +3807,18 @@
       <c r="A178" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="C178" t="inlineStr">
         <is>
           <t>sever</t>
         </is>
       </c>
-      <c r="C178" t="n">
+      <c r="D178" t="n">
         <v>686306</v>
       </c>
-      <c r="D178" t="n">
+      <c r="E178" t="n">
         <v>0.08420682377769961</v>
       </c>
     </row>
@@ -3286,15 +3826,18 @@
       <c r="A179" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="C179" t="inlineStr">
         <is>
           <t>field</t>
         </is>
       </c>
-      <c r="C179" t="n">
+      <c r="D179" t="n">
         <v>135289140</v>
       </c>
-      <c r="D179" t="n">
+      <c r="E179" t="n">
         <v>0.08084705460092423</v>
       </c>
     </row>
@@ -3302,15 +3845,18 @@
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="C180" t="inlineStr">
         <is>
           <t>fluff</t>
         </is>
       </c>
-      <c r="C180" t="n">
+      <c r="D180" t="n">
         <v>814535</v>
       </c>
-      <c r="D180" t="n">
+      <c r="E180" t="n">
         <v>0.08552298073673538</v>
       </c>
     </row>
@@ -3318,15 +3864,18 @@
       <c r="A181" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="C181" t="inlineStr">
         <is>
           <t>agape</t>
         </is>
       </c>
-      <c r="C181" t="n">
+      <c r="D181" t="n">
         <v>414471</v>
       </c>
-      <c r="D181" t="n">
+      <c r="E181" t="n">
         <v>0.08457161287349967</v>
       </c>
     </row>
@@ -3334,15 +3883,18 @@
       <c r="A182" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="C182" t="inlineStr">
         <is>
           <t>voice</t>
         </is>
       </c>
-      <c r="C182" t="n">
+      <c r="D182" t="n">
         <v>64600528</v>
       </c>
-      <c r="D182" t="n">
+      <c r="E182" t="n">
         <v>0.08139045928140914</v>
       </c>
     </row>
@@ -3350,15 +3902,18 @@
       <c r="A183" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="n">
+        <v>44751</v>
+      </c>
+      <c r="C183" t="inlineStr">
         <is>
           <t>stead</t>
         </is>
       </c>
-      <c r="C183" t="n">
+      <c r="D183" t="n">
         <v>724786</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>0.0835138234169958</v>
       </c>
     </row>
@@ -3366,15 +3921,18 @@
       <c r="A184" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="n">
+        <v>44752</v>
+      </c>
+      <c r="C184" t="inlineStr">
         <is>
           <t>berth</t>
         </is>
       </c>
-      <c r="C184" t="n">
+      <c r="D184" t="n">
         <v>1056010</v>
       </c>
-      <c r="D184" t="n">
+      <c r="E184" t="n">
         <v>0.08361852339356228</v>
       </c>
     </row>
@@ -3382,15 +3940,18 @@
       <c r="A185" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="C185" t="inlineStr">
         <is>
           <t>madam</t>
         </is>
       </c>
-      <c r="C185" t="n">
+      <c r="D185" t="n">
         <v>2023575</v>
       </c>
-      <c r="D185" t="n">
+      <c r="E185" t="n">
         <v>0.0845973609569614</v>
       </c>
     </row>
@@ -3398,15 +3959,18 @@
       <c r="A186" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="C186" t="inlineStr">
         <is>
           <t>night</t>
         </is>
       </c>
-      <c r="C186" t="n">
+      <c r="D186" t="n">
         <v>130531484</v>
       </c>
-      <c r="D186" t="n">
+      <c r="E186" t="n">
         <v>0.08249840119377531</v>
       </c>
     </row>
@@ -3414,15 +3978,18 @@
       <c r="A187" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="C187" t="inlineStr">
         <is>
           <t>bland</t>
         </is>
       </c>
-      <c r="C187" t="n">
+      <c r="D187" t="n">
         <v>1606490</v>
       </c>
-      <c r="D187" t="n">
+      <c r="E187" t="n">
         <v>0.08059075379492281</v>
       </c>
     </row>
@@ -3430,15 +3997,18 @@
       <c r="A188" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="C188" t="inlineStr">
         <is>
           <t>liver</t>
         </is>
       </c>
-      <c r="C188" t="n">
+      <c r="D188" t="n">
         <v>12139363</v>
       </c>
-      <c r="D188" t="n">
+      <c r="E188" t="n">
         <v>0.08355323189227848</v>
       </c>
     </row>
@@ -3446,15 +4016,18 @@
       <c r="A189" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="C189" t="inlineStr">
         <is>
           <t>wedge</t>
         </is>
       </c>
-      <c r="C189" t="n">
+      <c r="D189" t="n">
         <v>3162851</v>
       </c>
-      <c r="D189" t="n">
+      <c r="E189" t="n">
         <v>0.08546158943773258</v>
       </c>
     </row>
@@ -3462,15 +4035,18 @@
       <c r="A190" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="n">
+        <v>44758</v>
+      </c>
+      <c r="C190" t="inlineStr">
         <is>
           <t>roomy</t>
         </is>
       </c>
-      <c r="C190" t="n">
+      <c r="D190" t="n">
         <v>574188</v>
       </c>
-      <c r="D190" t="n">
+      <c r="E190" t="n">
         <v>0.0846036781964972</v>
       </c>
     </row>
@@ -3478,15 +4054,18 @@
       <c r="A191" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B191" s="2" t="n">
+        <v>44759</v>
+      </c>
+      <c r="C191" t="inlineStr">
         <is>
           <t>wacky</t>
         </is>
       </c>
-      <c r="C191" t="n">
+      <c r="D191" t="n">
         <v>1861879</v>
       </c>
-      <c r="D191" t="n">
+      <c r="E191" t="n">
         <v>0.08444623968089672</v>
       </c>
     </row>
@@ -3494,15 +4073,18 @@
       <c r="A192" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B192" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="C192" t="inlineStr">
         <is>
           <t>flock</t>
         </is>
       </c>
-      <c r="C192" t="n">
+      <c r="D192" t="n">
         <v>2585098</v>
       </c>
-      <c r="D192" t="n">
+      <c r="E192" t="n">
         <v>0.0833372480856861</v>
       </c>
     </row>
@@ -3510,15 +4092,18 @@
       <c r="A193" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="C193" t="inlineStr">
         <is>
           <t>angry</t>
         </is>
       </c>
-      <c r="C193" t="n">
+      <c r="D193" t="n">
         <v>9267505</v>
       </c>
-      <c r="D193" t="n">
+      <c r="E193" t="n">
         <v>0.08465475080041344</v>
       </c>
     </row>
@@ -3526,15 +4111,18 @@
       <c r="A194" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="C194" t="inlineStr">
         <is>
           <t>trite</t>
         </is>
       </c>
-      <c r="C194" t="n">
+      <c r="D194" t="n">
         <v>287494</v>
       </c>
-      <c r="D194" t="n">
+      <c r="E194" t="n">
         <v>0.08724577976655538</v>
       </c>
     </row>
@@ -3542,15 +4130,18 @@
       <c r="A195" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="C195" t="inlineStr">
         <is>
           <t>aphid</t>
         </is>
       </c>
-      <c r="C195" t="n">
+      <c r="D195" t="n">
         <v>295138</v>
       </c>
-      <c r="D195" t="n">
+      <c r="E195" t="n">
         <v>0.08614337614491122</v>
       </c>
     </row>
@@ -3558,15 +4149,18 @@
       <c r="A196" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="C196" t="inlineStr">
         <is>
           <t>tryst</t>
         </is>
       </c>
-      <c r="C196" t="n">
+      <c r="D196" t="n">
         <v>205722</v>
       </c>
-      <c r="D196" t="n">
+      <c r="E196" t="n">
         <v>0.08503677579526207</v>
       </c>
     </row>
@@ -3574,15 +4168,18 @@
       <c r="A197" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="n">
+        <v>44765</v>
+      </c>
+      <c r="C197" t="inlineStr">
         <is>
           <t>midge</t>
         </is>
       </c>
-      <c r="C197" t="n">
+      <c r="D197" t="n">
         <v>308737</v>
       </c>
-      <c r="D197" t="n">
+      <c r="E197" t="n">
         <v>0.08460931763170061</v>
       </c>
     </row>
@@ -3590,15 +4187,18 @@
       <c r="A198" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="n">
+        <v>44766</v>
+      </c>
+      <c r="C198" t="inlineStr">
         <is>
           <t>power</t>
         </is>
       </c>
-      <c r="C198" t="n">
+      <c r="D198" t="n">
         <v>226596368</v>
       </c>
-      <c r="D198" t="n">
+      <c r="E198" t="n">
         <v>0.0854243588777535</v>
       </c>
     </row>
@@ -3606,15 +4206,18 @@
       <c r="A199" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="C199" t="inlineStr">
         <is>
           <t>elope</t>
         </is>
       </c>
-      <c r="C199" t="n">
+      <c r="D199" t="n">
         <v>74984</v>
       </c>
-      <c r="D199" t="n">
+      <c r="E199" t="n">
         <v>0.08511777301927195</v>
       </c>
     </row>
@@ -3622,15 +4225,18 @@
       <c r="A200" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="C200" t="inlineStr">
         <is>
           <t>cinch</t>
         </is>
       </c>
-      <c r="C200" t="n">
+      <c r="D200" t="n">
         <v>427247</v>
       </c>
-      <c r="D200" t="n">
+      <c r="E200" t="n">
         <v>0.08953052002757142</v>
       </c>
     </row>
@@ -3638,15 +4244,18 @@
       <c r="A201" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="C201" t="inlineStr">
         <is>
           <t>motto</t>
         </is>
       </c>
-      <c r="C201" t="n">
+      <c r="D201" t="n">
         <v>1894147</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>0.08558253438932889</v>
       </c>
     </row>
@@ -3654,15 +4263,18 @@
       <c r="A202" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="C202" t="inlineStr">
         <is>
           <t>stomp</t>
         </is>
       </c>
-      <c r="C202" t="n">
+      <c r="D202" t="n">
         <v>1168038</v>
       </c>
-      <c r="D202" t="n">
+      <c r="E202" t="n">
         <v>0.08585485854858549</v>
       </c>
     </row>
@@ -3670,15 +4282,18 @@
       <c r="A203" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="C203" t="inlineStr">
         <is>
           <t>upset</t>
         </is>
       </c>
-      <c r="C203" t="n">
+      <c r="D203" t="n">
         <v>5544484</v>
       </c>
-      <c r="D203" t="n">
+      <c r="E203" t="n">
         <v>0.08502024291497975</v>
       </c>
     </row>
@@ -3686,15 +4301,18 @@
       <c r="A204" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="n">
+        <v>44772</v>
+      </c>
+      <c r="C204" t="inlineStr">
         <is>
           <t>bluff</t>
         </is>
       </c>
-      <c r="C204" t="n">
+      <c r="D204" t="n">
         <v>3906671</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>0.08489277969640993</v>
       </c>
     </row>
@@ -3702,15 +4320,18 @@
       <c r="A205" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="C205" t="inlineStr">
         <is>
           <t>cramp</t>
         </is>
       </c>
-      <c r="C205" t="n">
+      <c r="D205" t="n">
         <v>402123</v>
       </c>
-      <c r="D205" t="n">
+      <c r="E205" t="n">
         <v>0.0858343949044586</v>
       </c>
     </row>
@@ -3718,15 +4339,18 @@
       <c r="A206" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="C206" t="inlineStr">
         <is>
           <t>quart</t>
         </is>
       </c>
-      <c r="C206" t="n">
+      <c r="D206" t="n">
         <v>2002127</v>
       </c>
-      <c r="D206" t="n">
+      <c r="E206" t="n">
         <v>0.09009328459985816</v>
       </c>
     </row>
@@ -3734,15 +4358,18 @@
       <c r="A207" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="C207" t="inlineStr">
         <is>
           <t>coyly</t>
         </is>
       </c>
-      <c r="C207" t="n">
+      <c r="D207" t="n">
         <v>52174</v>
       </c>
-      <c r="D207" t="n">
+      <c r="E207" t="n">
         <v>0.09682316881033544</v>
       </c>
     </row>
@@ -3750,15 +4377,18 @@
       <c r="A208" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="C208" t="inlineStr">
         <is>
           <t>youth</t>
         </is>
       </c>
-      <c r="C208" t="n">
+      <c r="D208" t="n">
         <v>51426255</v>
       </c>
-      <c r="D208" t="n">
+      <c r="E208" t="n">
         <v>0.08668351528099841</v>
       </c>
     </row>
@@ -3766,15 +4396,18 @@
       <c r="A209" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="C209" t="inlineStr">
         <is>
           <t>rhyme</t>
         </is>
       </c>
-      <c r="C209" t="n">
+      <c r="D209" t="n">
         <v>1530733</v>
       </c>
-      <c r="D209" t="n">
+      <c r="E209" t="n">
         <v>0.08960756399580971</v>
       </c>
     </row>
@@ -3782,15 +4415,18 @@
       <c r="A210" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="C210" t="inlineStr">
         <is>
           <t>buggy</t>
         </is>
       </c>
-      <c r="C210" t="n">
+      <c r="D210" t="n">
         <v>1955438</v>
       </c>
-      <c r="D210" t="n">
+      <c r="E210" t="n">
         <v>0.09178045515394913</v>
       </c>
     </row>
@@ -3798,15 +4434,18 @@
       <c r="A211" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="n">
+        <v>44779</v>
+      </c>
+      <c r="C211" t="inlineStr">
         <is>
           <t>alien</t>
         </is>
       </c>
-      <c r="C211" t="n">
+      <c r="D211" t="n">
         <v>10490554</v>
       </c>
-      <c r="D211" t="n">
+      <c r="E211" t="n">
         <v>0.0874076362606524</v>
       </c>
     </row>
@@ -3814,15 +4453,18 @@
       <c r="A212" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="n">
+        <v>44780</v>
+      </c>
+      <c r="C212" t="inlineStr">
         <is>
           <t>smear</t>
         </is>
       </c>
-      <c r="C212" t="n">
+      <c r="D212" t="n">
         <v>1289528</v>
       </c>
-      <c r="D212" t="n">
+      <c r="E212" t="n">
         <v>0.08806559368357121</v>
       </c>
     </row>
@@ -3830,15 +4472,18 @@
       <c r="A213" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="C213" t="inlineStr">
         <is>
           <t>unfit</t>
         </is>
       </c>
-      <c r="C213" t="n">
+      <c r="D213" t="n">
         <v>814145</v>
       </c>
-      <c r="D213" t="n">
+      <c r="E213" t="n">
         <v>0.08973420430228629</v>
       </c>
     </row>
@@ -3846,15 +4491,18 @@
       <c r="A214" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="C214" t="inlineStr">
         <is>
           <t>patty</t>
         </is>
       </c>
-      <c r="C214" t="n">
+      <c r="D214" t="n">
         <v>2339693</v>
       </c>
-      <c r="D214" t="n">
+      <c r="E214" t="n">
         <v>0.08334483615382492</v>
       </c>
     </row>
@@ -3862,15 +4510,18 @@
       <c r="A215" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="C215" t="inlineStr">
         <is>
           <t>cling</t>
         </is>
       </c>
-      <c r="C215" t="n">
+      <c r="D215" t="n">
         <v>946281</v>
       </c>
-      <c r="D215" t="n">
+      <c r="E215" t="n">
         <v>0.08795878259945822</v>
       </c>
     </row>
@@ -3878,15 +4529,18 @@
       <c r="A216" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="C216" t="inlineStr">
         <is>
           <t>glean</t>
         </is>
       </c>
-      <c r="C216" t="n">
+      <c r="D216" t="n">
         <v>232952</v>
       </c>
-      <c r="D216" t="n">
+      <c r="E216" t="n">
         <v>0.08694136886410551</v>
       </c>
     </row>
@@ -3894,15 +4548,18 @@
       <c r="A217" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="C217" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="C217" t="n">
+      <c r="D217" t="n">
         <v>41359857</v>
       </c>
-      <c r="D217" t="n">
+      <c r="E217" t="n">
         <v>0.08994678051348032</v>
       </c>
     </row>
@@ -3910,15 +4567,18 @@
       <c r="A218" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="n">
+        <v>44786</v>
+      </c>
+      <c r="C218" t="inlineStr">
         <is>
           <t>hunky</t>
         </is>
       </c>
-      <c r="C218" t="n">
+      <c r="D218" t="n">
         <v>279599</v>
       </c>
-      <c r="D218" t="n">
+      <c r="E218" t="n">
         <v>0.09028801451411725</v>
       </c>
     </row>
@@ -3926,15 +4586,18 @@
       <c r="A219" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="n">
+        <v>44787</v>
+      </c>
+      <c r="C219" t="inlineStr">
         <is>
           <t>khaki</t>
         </is>
       </c>
-      <c r="C219" t="n">
+      <c r="D219" t="n">
         <v>1481504</v>
       </c>
-      <c r="D219" t="n">
+      <c r="E219" t="n">
         <v>0.09376974598761531</v>
       </c>
     </row>
@@ -3942,15 +4605,18 @@
       <c r="A220" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="C220" t="inlineStr">
         <is>
           <t>poker</t>
         </is>
       </c>
-      <c r="C220" t="n">
+      <c r="D220" t="n">
         <v>129054826</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>0.08989145183175033</v>
       </c>
     </row>
@@ -3958,15 +4624,18 @@
       <c r="A221" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="C221" t="inlineStr">
         <is>
           <t>gruel</t>
         </is>
       </c>
-      <c r="C221" t="n">
+      <c r="D221" t="n">
         <v>82196</v>
       </c>
-      <c r="D221" t="n">
+      <c r="E221" t="n">
         <v>0.08793619142572283</v>
       </c>
     </row>
@@ -3974,15 +4643,18 @@
       <c r="A222" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="C222" t="inlineStr">
         <is>
           <t>twice</t>
         </is>
       </c>
-      <c r="C222" t="n">
+      <c r="D222" t="n">
         <v>19945569</v>
       </c>
-      <c r="D222" t="n">
+      <c r="E222" t="n">
         <v>0.08859416445623342</v>
       </c>
     </row>
@@ -3990,15 +4662,18 @@
       <c r="A223" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="C223" t="inlineStr">
         <is>
           <t>twang</t>
         </is>
       </c>
-      <c r="C223" t="n">
+      <c r="D223" t="n">
         <v>243118</v>
       </c>
-      <c r="D223" t="n">
+      <c r="E223" t="n">
         <v>0.09078939836281413</v>
       </c>
     </row>
@@ -4006,15 +4681,18 @@
       <c r="A224" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C224" t="inlineStr">
         <is>
           <t>shrug</t>
         </is>
       </c>
-      <c r="C224" t="n">
+      <c r="D224" t="n">
         <v>720506</v>
       </c>
-      <c r="D224" t="n">
+      <c r="E224" t="n">
         <v>0.08794347122037391</v>
       </c>
     </row>
@@ -4022,15 +4700,18 @@
       <c r="A225" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="n">
+        <v>44793</v>
+      </c>
+      <c r="C225" t="inlineStr">
         <is>
           <t>treat</t>
         </is>
       </c>
-      <c r="C225" t="n">
+      <c r="D225" t="n">
         <v>19442315</v>
       </c>
-      <c r="D225" t="n">
+      <c r="E225" t="n">
         <v>0.08495228134396653</v>
       </c>
     </row>
@@ -4038,15 +4719,18 @@
       <c r="A226" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="n">
+        <v>44794</v>
+      </c>
+      <c r="C226" t="inlineStr">
         <is>
           <t>waste</t>
         </is>
       </c>
-      <c r="C226" t="n">
+      <c r="D226" t="n">
         <v>41089558</v>
       </c>
-      <c r="D226" t="n">
+      <c r="E226" t="n">
         <v>0.08945166633910773</v>
       </c>
     </row>
@@ -4054,15 +4738,18 @@
       <c r="A227" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="C227" t="inlineStr">
         <is>
           <t>merit</t>
         </is>
       </c>
-      <c r="C227" t="n">
+      <c r="D227" t="n">
         <v>6450895</v>
       </c>
-      <c r="D227" t="n">
+      <c r="E227" t="n">
         <v>0.08702073116362015</v>
       </c>
     </row>
@@ -4070,15 +4757,18 @@
       <c r="A228" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C228" t="inlineStr">
         <is>
           <t>woven</t>
         </is>
       </c>
-      <c r="C228" t="n">
+      <c r="D228" t="n">
         <v>4248524</v>
       </c>
-      <c r="D228" t="n">
+      <c r="E228" t="n">
         <v>0.08742436436257414</v>
       </c>
     </row>
@@ -4086,15 +4776,18 @@
       <c r="A229" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="C229" t="inlineStr">
         <is>
           <t>needy</t>
         </is>
       </c>
-      <c r="C229" t="n">
+      <c r="D229" t="n">
         <v>1636137</v>
       </c>
-      <c r="D229" t="n">
+      <c r="E229" t="n">
         <v>0.08685459940652819</v>
       </c>
     </row>
@@ -4102,15 +4795,18 @@
       <c r="A230" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="C230" t="inlineStr">
         <is>
           <t>clown</t>
         </is>
       </c>
-      <c r="C230" t="n">
+      <c r="D230" t="n">
         <v>3081501</v>
       </c>
-      <c r="D230" t="n">
+      <c r="E230" t="n">
         <v>0.08642512997795139</v>
       </c>
     </row>
@@ -4118,15 +4814,18 @@
       <c r="A231" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="C231" t="inlineStr">
         <is>
           <t>irony</t>
         </is>
       </c>
-      <c r="C231" t="n">
+      <c r="D231" t="n">
         <v>2212193</v>
       </c>
-      <c r="D231" t="n">
+      <c r="E231" t="n">
         <v>0.08774052310173983</v>
       </c>
     </row>
@@ -4134,15 +4833,18 @@
       <c r="A232" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="2" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C232" t="inlineStr">
         <is>
           <t>ruder</t>
         </is>
       </c>
-      <c r="C232" t="n">
+      <c r="D232" t="n">
         <v>89666</v>
       </c>
-      <c r="D232" t="n">
+      <c r="E232" t="n">
         <v>0.08911366473544381</v>
       </c>
     </row>
@@ -4150,15 +4852,18 @@
       <c r="A233" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="n">
+        <v>44801</v>
+      </c>
+      <c r="C233" t="inlineStr">
         <is>
           <t>gauze</t>
         </is>
       </c>
-      <c r="C233" t="n">
+      <c r="D233" t="n">
         <v>556178</v>
       </c>
-      <c r="D233" t="n">
+      <c r="E233" t="n">
         <v>0.09485668895214139</v>
       </c>
     </row>
@@ -4166,15 +4871,18 @@
       <c r="A234" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="C234" t="inlineStr">
         <is>
           <t>chief</t>
         </is>
       </c>
-      <c r="C234" t="n">
+      <c r="D234" t="n">
         <v>45699591</v>
       </c>
-      <c r="D234" t="n">
+      <c r="E234" t="n">
         <v>0.08961232169423296</v>
       </c>
     </row>
@@ -4182,15 +4890,18 @@
       <c r="A235" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="C235" t="inlineStr">
         <is>
           <t>onset</t>
         </is>
       </c>
-      <c r="C235" t="n">
+      <c r="D235" t="n">
         <v>3858839</v>
       </c>
-      <c r="D235" t="n">
+      <c r="E235" t="n">
         <v>0.0893939393939394</v>
       </c>
     </row>
@@ -4198,15 +4909,18 @@
       <c r="A236" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="C236" t="inlineStr">
         <is>
           <t>prize</t>
         </is>
       </c>
-      <c r="C236" t="n">
+      <c r="D236" t="n">
         <v>16204739</v>
       </c>
-      <c r="D236" t="n">
+      <c r="E236" t="n">
         <v>0.08957926604985429</v>
       </c>
     </row>
@@ -4214,15 +4928,18 @@
       <c r="A237" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C237" t="inlineStr">
         <is>
           <t>fungi</t>
         </is>
       </c>
-      <c r="C237" t="n">
+      <c r="D237" t="n">
         <v>2000715</v>
       </c>
-      <c r="D237" t="n">
+      <c r="E237" t="n">
         <v>0.09177820267686425</v>
       </c>
     </row>
@@ -4230,15 +4947,18 @@
       <c r="A238" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C238" t="inlineStr">
         <is>
           <t>charm</t>
         </is>
       </c>
-      <c r="C238" t="n">
+      <c r="D238" t="n">
         <v>10554644</v>
       </c>
-      <c r="D238" t="n">
+      <c r="E238" t="n">
         <v>0.08814802373754339</v>
       </c>
     </row>
@@ -4246,15 +4966,18 @@
       <c r="A239" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="2" t="n">
+        <v>44807</v>
+      </c>
+      <c r="C239" t="inlineStr">
         <is>
           <t>gully</t>
         </is>
       </c>
-      <c r="C239" t="n">
+      <c r="D239" t="n">
         <v>800734</v>
       </c>
-      <c r="D239" t="n">
+      <c r="E239" t="n">
         <v>0.09223814561892854</v>
       </c>
     </row>
@@ -4262,15 +4985,18 @@
       <c r="A240" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" s="2" t="n">
+        <v>44808</v>
+      </c>
+      <c r="C240" t="inlineStr">
         <is>
           <t>inter</t>
         </is>
       </c>
-      <c r="C240" t="n">
+      <c r="D240" t="n">
         <v>15269346</v>
       </c>
-      <c r="D240" t="n">
+      <c r="E240" t="n">
         <v>0.09023049534636766</v>
       </c>
     </row>
@@ -4278,15 +5004,18 @@
       <c r="A241" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="C241" t="inlineStr">
         <is>
           <t>whoop</t>
         </is>
       </c>
-      <c r="C241" t="n">
+      <c r="D241" t="n">
         <v>331753</v>
       </c>
-      <c r="D241" t="n">
+      <c r="E241" t="n">
         <v>0.09073412152873248</v>
       </c>
     </row>
@@ -4294,15 +5023,18 @@
       <c r="A242" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="C242" t="inlineStr">
         <is>
           <t>taunt</t>
         </is>
       </c>
-      <c r="C242" t="n">
+      <c r="D242" t="n">
         <v>295148</v>
       </c>
-      <c r="D242" t="n">
+      <c r="E242" t="n">
         <v>0.09231991201808518</v>
       </c>
     </row>
@@ -4310,15 +5042,18 @@
       <c r="A243" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="C243" t="inlineStr">
         <is>
           <t>leery</t>
         </is>
       </c>
-      <c r="C243" t="n">
+      <c r="D243" t="n">
         <v>168700</v>
       </c>
-      <c r="D243" t="n">
+      <c r="E243" t="n">
         <v>0.09270134228187919</v>
       </c>
     </row>
@@ -4326,15 +5061,18 @@
       <c r="A244" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="C244" t="inlineStr">
         <is>
           <t>class</t>
         </is>
       </c>
-      <c r="C244" t="n">
+      <c r="D244" t="n">
         <v>191087771</v>
       </c>
-      <c r="D244" t="n">
+      <c r="E244" t="n">
         <v>0.09389274763781991</v>
       </c>
     </row>
@@ -4342,15 +5080,18 @@
       <c r="A245" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="C245" t="inlineStr">
         <is>
           <t>theme</t>
         </is>
       </c>
-      <c r="C245" t="n">
+      <c r="D245" t="n">
         <v>37219937</v>
       </c>
-      <c r="D245" t="n">
+      <c r="E245" t="n">
         <v>0.09042024120353102</v>
       </c>
     </row>
@@ -4358,15 +5099,18 @@
       <c r="A246" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="n">
+        <v>44814</v>
+      </c>
+      <c r="C246" t="inlineStr">
         <is>
           <t>lofty</t>
         </is>
       </c>
-      <c r="C246" t="n">
+      <c r="D246" t="n">
         <v>1018661</v>
       </c>
-      <c r="D246" t="n">
+      <c r="E246" t="n">
         <v>0.09498238533365257</v>
       </c>
     </row>
@@ -4374,15 +5118,18 @@
       <c r="A247" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="2" t="n">
+        <v>44815</v>
+      </c>
+      <c r="C247" t="inlineStr">
         <is>
           <t>tibia</t>
         </is>
       </c>
-      <c r="C247" t="n">
+      <c r="D247" t="n">
         <v>620778</v>
       </c>
-      <c r="D247" t="n">
+      <c r="E247" t="n">
         <v>0.09592283142682971</v>
       </c>
     </row>
@@ -4390,15 +5137,18 @@
       <c r="A248" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="C248" t="inlineStr">
         <is>
           <t>booze</t>
         </is>
       </c>
-      <c r="C248" t="n">
+      <c r="D248" t="n">
         <v>1178694</v>
       </c>
-      <c r="D248" t="n">
+      <c r="E248" t="n">
         <v>0.09891240951041273</v>
       </c>
     </row>
@@ -4406,15 +5156,18 @@
       <c r="A249" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="C249" t="inlineStr">
         <is>
           <t>alpha</t>
         </is>
       </c>
-      <c r="C249" t="n">
+      <c r="D249" t="n">
         <v>27832836</v>
       </c>
-      <c r="D249" t="n">
+      <c r="E249" t="n">
         <v>0.09173814286198596</v>
       </c>
     </row>
@@ -4422,15 +5175,18 @@
       <c r="A250" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="C250" t="inlineStr">
         <is>
           <t>thyme</t>
         </is>
       </c>
-      <c r="C250" t="n">
+      <c r="D250" t="n">
         <v>1007823</v>
       </c>
-      <c r="D250" t="n">
+      <c r="E250" t="n">
         <v>0.09140688196129675</v>
       </c>
     </row>
@@ -4438,15 +5194,18 @@
       <c r="A251" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="n">
+        <v>44819</v>
+      </c>
+      <c r="C251" t="inlineStr">
         <is>
           <t>doubt</t>
         </is>
       </c>
-      <c r="C251" t="n">
+      <c r="D251" t="n">
         <v>20311261</v>
       </c>
-      <c r="D251" t="n">
+      <c r="E251" t="n">
         <v>0.09030110364683301</v>
       </c>
     </row>
@@ -4454,15 +5213,18 @@
       <c r="A252" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="n">
+        <v>44820</v>
+      </c>
+      <c r="C252" t="inlineStr">
         <is>
           <t>parer</t>
         </is>
       </c>
-      <c r="C252" t="n">
+      <c r="D252" t="n">
         <v>38034</v>
       </c>
-      <c r="D252" t="n">
+      <c r="E252" t="n">
         <v>0.1106971508215176</v>
       </c>
     </row>
@@ -4470,15 +5232,18 @@
       <c r="A253" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="n">
+        <v>44821</v>
+      </c>
+      <c r="C253" t="inlineStr">
         <is>
           <t>chute</t>
         </is>
       </c>
-      <c r="C253" t="n">
+      <c r="D253" t="n">
         <v>834005</v>
       </c>
-      <c r="D253" t="n">
+      <c r="E253" t="n">
         <v>0.09195643066610809</v>
       </c>
     </row>
@@ -4486,15 +5251,18 @@
       <c r="A254" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="n">
+        <v>44822</v>
+      </c>
+      <c r="C254" t="inlineStr">
         <is>
           <t>stick</t>
         </is>
       </c>
-      <c r="C254" t="n">
+      <c r="D254" t="n">
         <v>22399126</v>
       </c>
-      <c r="D254" t="n">
+      <c r="E254" t="n">
         <v>0.09177693190743762</v>
       </c>
     </row>
@@ -4502,15 +5270,18 @@
       <c r="A255" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="C255" t="inlineStr">
         <is>
           <t>trice</t>
         </is>
       </c>
-      <c r="C255" t="n">
+      <c r="D255" t="n">
         <v>354532</v>
       </c>
-      <c r="D255" t="n">
+      <c r="E255" t="n">
         <v>0.0978601997146933</v>
       </c>
     </row>
@@ -4518,15 +5289,18 @@
       <c r="A256" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="C256" t="inlineStr">
         <is>
           <t>alike</t>
         </is>
       </c>
-      <c r="C256" t="n">
+      <c r="D256" t="n">
         <v>6220739</v>
       </c>
-      <c r="D256" t="n">
+      <c r="E256" t="n">
         <v>0.09089746459059372</v>
       </c>
     </row>
@@ -4534,15 +5308,18 @@
       <c r="A257" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="C257" t="inlineStr">
         <is>
           <t>recap</t>
         </is>
       </c>
-      <c r="C257" t="n">
+      <c r="D257" t="n">
         <v>2861982</v>
       </c>
-      <c r="D257" t="n">
+      <c r="E257" t="n">
         <v>0.09069301976482362</v>
       </c>
     </row>
@@ -4550,15 +5327,18 @@
       <c r="A258" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="C258" t="inlineStr">
         <is>
           <t>saint</t>
         </is>
       </c>
-      <c r="C258" t="n">
+      <c r="D258" t="n">
         <v>38929141</v>
       </c>
-      <c r="D258" t="n">
+      <c r="E258" t="n">
         <v>0.09052387171673197</v>
       </c>
     </row>
@@ -4566,15 +5346,18 @@
       <c r="A259" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="C259" t="inlineStr">
         <is>
           <t>glory</t>
         </is>
       </c>
-      <c r="C259" t="n">
+      <c r="D259" t="n">
         <v>13158826</v>
       </c>
-      <c r="D259" t="n">
+      <c r="E259" t="n">
         <v>0.09181503697356311</v>
       </c>
     </row>
@@ -4582,15 +5365,18 @@
       <c r="A260" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="n">
+        <v>44828</v>
+      </c>
+      <c r="C260" t="inlineStr">
         <is>
           <t>grate</t>
         </is>
       </c>
-      <c r="C260" t="n">
+      <c r="D260" t="n">
         <v>672155</v>
       </c>
-      <c r="D260" t="n">
+      <c r="E260" t="n">
         <v>0.0938768038563627</v>
       </c>
     </row>
@@ -4598,15 +5384,18 @@
       <c r="A261" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="n">
+        <v>44829</v>
+      </c>
+      <c r="C261" t="inlineStr">
         <is>
           <t>admit</t>
         </is>
       </c>
-      <c r="C261" t="n">
+      <c r="D261" t="n">
         <v>8780656</v>
       </c>
-      <c r="D261" t="n">
+      <c r="E261" t="n">
         <v>0.09232944747189073</v>
       </c>
     </row>
@@ -4614,15 +5403,18 @@
       <c r="A262" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="C262" t="inlineStr">
         <is>
           <t>brisk</t>
         </is>
       </c>
-      <c r="C262" t="n">
+      <c r="D262" t="n">
         <v>774000</v>
       </c>
-      <c r="D262" t="n">
+      <c r="E262" t="n">
         <v>0.09096070144452154</v>
       </c>
     </row>
@@ -4630,15 +5422,18 @@
       <c r="A263" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="C263" t="inlineStr">
         <is>
           <t>soggy</t>
         </is>
       </c>
-      <c r="C263" t="n">
+      <c r="D263" t="n">
         <v>331525</v>
       </c>
-      <c r="D263" t="n">
+      <c r="E263" t="n">
         <v>0.09320639018880103</v>
       </c>
     </row>
@@ -4646,15 +5441,18 @@
       <c r="A264" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="C264" t="inlineStr">
         <is>
           <t>usurp</t>
         </is>
       </c>
-      <c r="C264" t="n">
+      <c r="D264" t="n">
         <v>171456</v>
       </c>
-      <c r="D264" t="n">
+      <c r="E264" t="n">
         <v>0.09590177005262318</v>
       </c>
     </row>
@@ -4662,15 +5460,18 @@
       <c r="A265" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="2" t="n">
+        <v>44833</v>
+      </c>
+      <c r="C265" t="inlineStr">
         <is>
           <t>scald</t>
         </is>
       </c>
-      <c r="C265" t="n">
+      <c r="D265" t="n">
         <v>101839</v>
       </c>
-      <c r="D265" t="n">
+      <c r="E265" t="n">
         <v>0.09282409685992715</v>
       </c>
     </row>
@@ -4678,15 +5479,18 @@
       <c r="A266" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="C266" t="inlineStr">
         <is>
           <t>scorn</t>
         </is>
       </c>
-      <c r="C266" t="n">
+      <c r="D266" t="n">
         <v>622924</v>
       </c>
-      <c r="D266" t="n">
+      <c r="E266" t="n">
         <v>0.09156711398648432</v>
       </c>
     </row>
@@ -4694,15 +5498,18 @@
       <c r="A267" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C267" t="inlineStr">
         <is>
           <t>leave</t>
         </is>
       </c>
-      <c r="C267" t="n">
+      <c r="D267" t="n">
         <v>70957750</v>
       </c>
-      <c r="D267" t="n">
+      <c r="E267" t="n">
         <v>0.09559605701723282</v>
       </c>
     </row>
@@ -4710,15 +5517,18 @@
       <c r="A268" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="2" t="n">
+        <v>44836</v>
+      </c>
+      <c r="C268" t="inlineStr">
         <is>
           <t>twine</t>
         </is>
       </c>
-      <c r="C268" t="n">
+      <c r="D268" t="n">
         <v>415457</v>
       </c>
-      <c r="D268" t="n">
+      <c r="E268" t="n">
         <v>0.09222946024993353</v>
       </c>
     </row>
@@ -4726,15 +5536,18 @@
       <c r="A269" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="C269" t="inlineStr">
         <is>
           <t>sting</t>
         </is>
       </c>
-      <c r="C269" t="n">
+      <c r="D269" t="n">
         <v>2773263</v>
       </c>
-      <c r="D269" t="n">
+      <c r="E269" t="n">
         <v>0.09195366699702676</v>
       </c>
     </row>
@@ -4742,15 +5555,18 @@
       <c r="A270" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C270" t="inlineStr">
         <is>
           <t>bough</t>
         </is>
       </c>
-      <c r="C270" t="n">
+      <c r="D270" t="n">
         <v>520067</v>
       </c>
-      <c r="D270" t="n">
+      <c r="E270" t="n">
         <v>0.0955831823577185</v>
       </c>
     </row>
@@ -4758,15 +5574,18 @@
       <c r="A271" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="2" t="n">
+        <v>44840</v>
+      </c>
+      <c r="C271" t="inlineStr">
         <is>
           <t>sloth</t>
         </is>
       </c>
-      <c r="C271" t="n">
+      <c r="D271" t="n">
         <v>519428</v>
       </c>
-      <c r="D271" t="n">
+      <c r="E271" t="n">
         <v>0.09184551995572228</v>
       </c>
     </row>
@@ -4774,15 +5593,18 @@
       <c r="A272" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B272" s="2" t="n">
+        <v>44841</v>
+      </c>
+      <c r="C272" t="inlineStr">
         <is>
           <t>dandy</t>
         </is>
       </c>
-      <c r="C272" t="n">
+      <c r="D272" t="n">
         <v>1098188</v>
       </c>
-      <c r="D272" t="n">
+      <c r="E272" t="n">
         <v>0.09784331289189004</v>
       </c>
     </row>
@@ -4790,15 +5612,18 @@
       <c r="A273" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="2" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C273" t="inlineStr">
         <is>
           <t>vigor</t>
         </is>
       </c>
-      <c r="C273" t="n">
+      <c r="D273" t="n">
         <v>977544</v>
       </c>
-      <c r="D273" t="n">
+      <c r="E273" t="n">
         <v>0.09819736108530012</v>
       </c>
     </row>
@@ -4806,15 +5631,18 @@
       <c r="A274" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="2" t="n">
+        <v>44843</v>
+      </c>
+      <c r="C274" t="inlineStr">
         <is>
           <t>howdy</t>
         </is>
       </c>
-      <c r="C274" t="n">
+      <c r="D274" t="n">
         <v>726642</v>
       </c>
-      <c r="D274" t="n">
+      <c r="E274" t="n">
         <v>0.09391720642072655</v>
       </c>
     </row>
@@ -4822,15 +5650,18 @@
       <c r="A275" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="n">
+        <v>44844</v>
+      </c>
+      <c r="C275" t="inlineStr">
         <is>
           <t>enjoy</t>
         </is>
       </c>
-      <c r="C275" t="n">
+      <c r="D275" t="n">
         <v>50141455</v>
       </c>
-      <c r="D275" t="n">
+      <c r="E275" t="n">
         <v>0.09874246595728849</v>
       </c>
     </row>
@@ -4838,15 +5669,18 @@
       <c r="A276" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="C276" t="inlineStr">
         <is>
           <t>valid</t>
         </is>
       </c>
-      <c r="C276" t="n">
+      <c r="D276" t="n">
         <v>57094711</v>
       </c>
-      <c r="D276" t="n">
+      <c r="E276" t="n">
         <v>0.0963079615048119</v>
       </c>
     </row>
@@ -4854,15 +5688,18 @@
       <c r="A277" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B277" s="2" t="n">
+        <v>44846</v>
+      </c>
+      <c r="C277" t="inlineStr">
         <is>
           <t>ionic</t>
         </is>
       </c>
-      <c r="C277" t="n">
+      <c r="D277" t="n">
         <v>1808092</v>
       </c>
-      <c r="D277" t="n">
+      <c r="E277" t="n">
         <v>0.1010943020822613</v>
       </c>
     </row>
@@ -4870,15 +5707,18 @@
       <c r="A278" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B278" s="2" t="n">
+        <v>44847</v>
+      </c>
+      <c r="C278" t="inlineStr">
         <is>
           <t>equal</t>
         </is>
       </c>
-      <c r="C278" t="n">
+      <c r="D278" t="n">
         <v>34832354</v>
       </c>
-      <c r="D278" t="n">
+      <c r="E278" t="n">
         <v>0.0984299738941795</v>
       </c>
     </row>
@@ -4886,15 +5726,18 @@
       <c r="A279" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B279" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="C279" t="inlineStr">
         <is>
           <t>floor</t>
         </is>
       </c>
-      <c r="C279" t="n">
+      <c r="D279" t="n">
         <v>53759851</v>
       </c>
-      <c r="D279" t="n">
+      <c r="E279" t="n">
         <v>0.0952051477201965</v>
       </c>
     </row>
@@ -4902,15 +5745,18 @@
       <c r="A280" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" s="2" t="n">
+        <v>44849</v>
+      </c>
+      <c r="C280" t="inlineStr">
         <is>
           <t>catch</t>
         </is>
       </c>
-      <c r="C280" t="n">
+      <c r="D280" t="n">
         <v>20400979</v>
       </c>
-      <c r="D280" t="n">
+      <c r="E280" t="n">
         <v>0.1027201263033253</v>
       </c>
     </row>
@@ -4918,15 +5764,18 @@
       <c r="A281" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="2" t="n">
+        <v>44850</v>
+      </c>
+      <c r="C281" t="inlineStr">
         <is>
           <t>spade</t>
         </is>
       </c>
-      <c r="C281" t="n">
+      <c r="D281" t="n">
         <v>1567565</v>
       </c>
-      <c r="D281" t="n">
+      <c r="E281" t="n">
         <v>0.09369972750254441</v>
       </c>
     </row>
@@ -4934,15 +5783,18 @@
       <c r="A282" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C282" t="inlineStr">
         <is>
           <t>stein</t>
         </is>
       </c>
-      <c r="C282" t="n">
+      <c r="D282" t="n">
         <v>3893544</v>
       </c>
-      <c r="D282" t="n">
+      <c r="E282" t="n">
         <v>0.09482234801240845</v>
       </c>
     </row>
@@ -4950,15 +5802,18 @@
       <c r="A283" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="C283" t="inlineStr">
         <is>
           <t>exist</t>
         </is>
       </c>
-      <c r="C283" t="n">
+      <c r="D283" t="n">
         <v>25349128</v>
       </c>
-      <c r="D283" t="n">
+      <c r="E283" t="n">
         <v>0.0980357891793653</v>
       </c>
     </row>
@@ -4966,15 +5821,18 @@
       <c r="A284" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" s="2" t="n">
+        <v>44853</v>
+      </c>
+      <c r="C284" t="inlineStr">
         <is>
           <t>quirk</t>
         </is>
       </c>
-      <c r="C284" t="n">
+      <c r="D284" t="n">
         <v>444069</v>
       </c>
-      <c r="D284" t="n">
+      <c r="E284" t="n">
         <v>0.09865122519596074</v>
       </c>
     </row>
@@ -4982,15 +5840,18 @@
       <c r="A285" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="2" t="n">
+        <v>44854</v>
+      </c>
+      <c r="C285" t="inlineStr">
         <is>
           <t>denim</t>
         </is>
       </c>
-      <c r="C285" t="n">
+      <c r="D285" t="n">
         <v>4737554</v>
       </c>
-      <c r="D285" t="n">
+      <c r="E285" t="n">
         <v>0.09634320308966285</v>
       </c>
     </row>
@@ -4998,15 +5859,18 @@
       <c r="A286" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="C286" t="inlineStr">
         <is>
           <t>grove</t>
         </is>
       </c>
-      <c r="C286" t="n">
+      <c r="D286" t="n">
         <v>15189493</v>
       </c>
-      <c r="D286" t="n">
+      <c r="E286" t="n">
         <v>0.09756608583301324</v>
       </c>
     </row>
@@ -5014,15 +5878,18 @@
       <c r="A287" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B287" s="2" t="n">
+        <v>44856</v>
+      </c>
+      <c r="C287" t="inlineStr">
         <is>
           <t>spiel</t>
         </is>
       </c>
-      <c r="C287" t="n">
+      <c r="D287" t="n">
         <v>811922</v>
       </c>
-      <c r="D287" t="n">
+      <c r="E287" t="n">
         <v>0.09661669646541053</v>
       </c>
     </row>
@@ -5030,15 +5897,18 @@
       <c r="A288" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B288" s="2" t="n">
+        <v>44857</v>
+      </c>
+      <c r="C288" t="inlineStr">
         <is>
           <t>mummy</t>
         </is>
       </c>
-      <c r="C288" t="n">
+      <c r="D288" t="n">
         <v>1878933</v>
       </c>
-      <c r="D288" t="n">
+      <c r="E288" t="n">
         <v>0.1031797534068787</v>
       </c>
     </row>
@@ -5046,15 +5916,18 @@
       <c r="A289" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B289" t="inlineStr">
+      <c r="B289" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="C289" t="inlineStr">
         <is>
           <t>fault</t>
         </is>
       </c>
-      <c r="C289" t="n">
+      <c r="D289" t="n">
         <v>13112664</v>
       </c>
-      <c r="D289" t="n">
+      <c r="E289" t="n">
         <v>0.09562303520226621</v>
       </c>
     </row>
@@ -5062,15 +5935,18 @@
       <c r="A290" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B290" t="inlineStr">
+      <c r="B290" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="C290" t="inlineStr">
         <is>
           <t>foggy</t>
         </is>
       </c>
-      <c r="C290" t="n">
+      <c r="D290" t="n">
         <v>704386</v>
       </c>
-      <c r="D290" t="n">
+      <c r="E290" t="n">
         <v>0.09729561703450419</v>
       </c>
     </row>
@@ -5078,15 +5954,18 @@
       <c r="A291" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B291" t="inlineStr">
+      <c r="B291" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="C291" t="inlineStr">
         <is>
           <t>flout</t>
         </is>
       </c>
-      <c r="C291" t="n">
+      <c r="D291" t="n">
         <v>72396</v>
       </c>
-      <c r="D291" t="n">
+      <c r="E291" t="n">
         <v>0.09659714599341383</v>
       </c>
     </row>
@@ -5094,15 +5973,18 @@
       <c r="A292" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B292" s="2" t="n">
+        <v>44861</v>
+      </c>
+      <c r="C292" t="inlineStr">
         <is>
           <t>carry</t>
         </is>
       </c>
-      <c r="C292" t="n">
+      <c r="D292" t="n">
         <v>33056477</v>
       </c>
-      <c r="D292" t="n">
+      <c r="E292" t="n">
         <v>0.09471549132529247</v>
       </c>
     </row>
@@ -5110,15 +5992,18 @@
       <c r="A293" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="B293" s="2" t="n">
+        <v>44862</v>
+      </c>
+      <c r="C293" t="inlineStr">
         <is>
           <t>sneak</t>
         </is>
       </c>
-      <c r="C293" t="n">
+      <c r="D293" t="n">
         <v>2280877</v>
       </c>
-      <c r="D293" t="n">
+      <c r="E293" t="n">
         <v>0.094463357821179</v>
       </c>
     </row>
@@ -5126,15 +6011,18 @@
       <c r="A294" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B294" t="inlineStr">
+      <c r="B294" s="2" t="n">
+        <v>44863</v>
+      </c>
+      <c r="C294" t="inlineStr">
         <is>
           <t>libel</t>
         </is>
       </c>
-      <c r="C294" t="n">
+      <c r="D294" t="n">
         <v>866830</v>
       </c>
-      <c r="D294" t="n">
+      <c r="E294" t="n">
         <v>0.1008109397360471</v>
       </c>
     </row>
@@ -5142,15 +6030,18 @@
       <c r="A295" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B295" t="inlineStr">
+      <c r="B295" s="2" t="n">
+        <v>44864</v>
+      </c>
+      <c r="C295" t="inlineStr">
         <is>
           <t>waltz</t>
         </is>
       </c>
-      <c r="C295" t="n">
+      <c r="D295" t="n">
         <v>1723021</v>
       </c>
-      <c r="D295" t="n">
+      <c r="E295" t="n">
         <v>0.1011673151750973</v>
       </c>
     </row>
@@ -5158,15 +6049,18 @@
       <c r="A296" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B296" t="inlineStr">
+      <c r="B296" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="C296" t="inlineStr">
         <is>
           <t>aptly</t>
         </is>
       </c>
-      <c r="C296" t="n">
+      <c r="D296" t="n">
         <v>598371</v>
       </c>
-      <c r="D296" t="n">
+      <c r="E296" t="n">
         <v>0.09706392935315873</v>
       </c>
     </row>
@@ -5174,15 +6068,18 @@
       <c r="A297" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B297" t="inlineStr">
+      <c r="B297" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="C297" t="inlineStr">
         <is>
           <t>piney</t>
         </is>
       </c>
-      <c r="C297" t="n">
+      <c r="D297" t="n">
         <v>394672</v>
       </c>
-      <c r="D297" t="n">
+      <c r="E297" t="n">
         <v>0.1333357573994619</v>
       </c>
     </row>
@@ -5190,15 +6087,18 @@
       <c r="A298" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B298" t="inlineStr">
+      <c r="B298" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="C298" t="inlineStr">
         <is>
           <t>inept</t>
         </is>
       </c>
-      <c r="C298" t="n">
+      <c r="D298" t="n">
         <v>458533</v>
       </c>
-      <c r="D298" t="n">
+      <c r="E298" t="n">
         <v>0.09541019154318757</v>
       </c>
     </row>
@@ -5206,15 +6106,18 @@
       <c r="A299" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B299" t="inlineStr">
+      <c r="B299" s="2" t="n">
+        <v>44868</v>
+      </c>
+      <c r="C299" t="inlineStr">
         <is>
           <t>aloud</t>
         </is>
       </c>
-      <c r="C299" t="n">
+      <c r="D299" t="n">
         <v>3743858</v>
       </c>
-      <c r="D299" t="n">
+      <c r="E299" t="n">
         <v>0.09538471949651485</v>
       </c>
     </row>
@@ -5222,15 +6125,18 @@
       <c r="A300" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B300" t="inlineStr">
+      <c r="B300" s="2" t="n">
+        <v>44869</v>
+      </c>
+      <c r="C300" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
       </c>
-      <c r="C300" t="n">
+      <c r="D300" t="n">
         <v>227125249</v>
       </c>
-      <c r="D300" t="n">
+      <c r="E300" t="n">
         <v>0.0938529088913282</v>
       </c>
     </row>
@@ -5238,15 +6144,18 @@
       <c r="A301" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B301" t="inlineStr">
+      <c r="B301" s="2" t="n">
+        <v>44870</v>
+      </c>
+      <c r="C301" t="inlineStr">
         <is>
           <t>dream</t>
         </is>
       </c>
-      <c r="C301" t="n">
+      <c r="D301" t="n">
         <v>33518573</v>
       </c>
-      <c r="D301" t="n">
+      <c r="E301" t="n">
         <v>0.09249235114144505</v>
       </c>
     </row>
@@ -5254,15 +6163,18 @@
       <c r="A302" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B302" t="inlineStr">
+      <c r="B302" s="2" t="n">
+        <v>44871</v>
+      </c>
+      <c r="C302" t="inlineStr">
         <is>
           <t>stale</t>
         </is>
       </c>
-      <c r="C302" t="n">
+      <c r="D302" t="n">
         <v>1065657</v>
       </c>
-      <c r="D302" t="n">
+      <c r="E302" t="n">
         <v>0.09698081627397966</v>
       </c>
     </row>
@@ -5270,15 +6182,18 @@
       <c r="A303" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B303" t="inlineStr">
+      <c r="B303" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="C303" t="inlineStr">
         <is>
           <t>begin</t>
         </is>
       </c>
-      <c r="C303" t="n">
+      <c r="D303" t="n">
         <v>45434902</v>
       </c>
-      <c r="D303" t="n">
+      <c r="E303" t="n">
         <v>0.09346259963212752</v>
       </c>
     </row>
@@ -5286,15 +6201,18 @@
       <c r="A304" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B304" t="inlineStr">
+      <c r="B304" s="2" t="n">
+        <v>44873</v>
+      </c>
+      <c r="C304" t="inlineStr">
         <is>
           <t>spell</t>
         </is>
       </c>
-      <c r="C304" t="n">
+      <c r="D304" t="n">
         <v>8506049</v>
       </c>
-      <c r="D304" t="n">
+      <c r="E304" t="n">
         <v>0.09300701870429574</v>
       </c>
     </row>
@@ -5302,15 +6220,18 @@
       <c r="A305" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B305" t="inlineStr">
+      <c r="B305" s="2" t="n">
+        <v>44874</v>
+      </c>
+      <c r="C305" t="inlineStr">
         <is>
           <t>rainy</t>
         </is>
       </c>
-      <c r="C305" t="n">
+      <c r="D305" t="n">
         <v>2469088</v>
       </c>
-      <c r="D305" t="n">
+      <c r="E305" t="n">
         <v>0.09239580458183826</v>
       </c>
     </row>
@@ -5318,15 +6239,18 @@
       <c r="A306" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B306" t="inlineStr">
+      <c r="B306" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="C306" t="inlineStr">
         <is>
           <t>unite</t>
         </is>
       </c>
-      <c r="C306" t="n">
+      <c r="D306" t="n">
         <v>2888724</v>
       </c>
-      <c r="D306" t="n">
+      <c r="E306" t="n">
         <v>0.09374886227108895</v>
       </c>
     </row>
@@ -5334,15 +6258,18 @@
       <c r="A307" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B307" t="inlineStr">
+      <c r="B307" s="2" t="n">
+        <v>44876</v>
+      </c>
+      <c r="C307" t="inlineStr">
         <is>
           <t>medal</t>
         </is>
       </c>
-      <c r="C307" t="n">
+      <c r="D307" t="n">
         <v>7747036</v>
       </c>
-      <c r="D307" t="n">
+      <c r="E307" t="n">
         <v>0.09379448313007348</v>
       </c>
     </row>
@@ -5350,15 +6277,18 @@
       <c r="A308" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B308" t="inlineStr">
+      <c r="B308" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="C308" t="inlineStr">
         <is>
           <t>valet</t>
         </is>
       </c>
-      <c r="C308" t="n">
+      <c r="D308" t="n">
         <v>2052690</v>
       </c>
-      <c r="D308" t="n">
+      <c r="E308" t="n">
         <v>0.09553933495539335</v>
       </c>
     </row>
@@ -5366,15 +6296,18 @@
       <c r="A309" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B309" t="inlineStr">
+      <c r="B309" s="2" t="n">
+        <v>44878</v>
+      </c>
+      <c r="C309" t="inlineStr">
         <is>
           <t>inane</t>
         </is>
       </c>
-      <c r="C309" t="n">
+      <c r="D309" t="n">
         <v>319343</v>
       </c>
-      <c r="D309" t="n">
+      <c r="E309" t="n">
         <v>0.1002591189954156</v>
       </c>
     </row>
@@ -5382,15 +6315,18 @@
       <c r="A310" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B310" t="inlineStr">
+      <c r="B310" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="C310" t="inlineStr">
         <is>
           <t>maple</t>
         </is>
       </c>
-      <c r="C310" t="n">
+      <c r="D310" t="n">
         <v>9704551</v>
       </c>
-      <c r="D310" t="n">
+      <c r="E310" t="n">
         <v>0.09296804341272234</v>
       </c>
     </row>
@@ -5398,15 +6334,18 @@
       <c r="A311" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B311" t="inlineStr">
+      <c r="B311" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="C311" t="inlineStr">
         <is>
           <t>snarl</t>
         </is>
       </c>
-      <c r="C311" t="n">
+      <c r="D311" t="n">
         <v>184639</v>
       </c>
-      <c r="D311" t="n">
+      <c r="E311" t="n">
         <v>0.09645131938125569</v>
       </c>
     </row>
@@ -5414,15 +6353,18 @@
       <c r="A312" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B312" t="inlineStr">
+      <c r="B312" s="2" t="n">
+        <v>44881</v>
+      </c>
+      <c r="C312" t="inlineStr">
         <is>
           <t>baker</t>
         </is>
       </c>
-      <c r="C312" t="n">
+      <c r="D312" t="n">
         <v>14862470</v>
       </c>
-      <c r="D312" t="n">
+      <c r="E312" t="n">
         <v>0.09935095401939319</v>
       </c>
     </row>
@@ -5430,15 +6372,18 @@
       <c r="A313" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B313" t="inlineStr">
+      <c r="B313" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="C313" t="inlineStr">
         <is>
           <t>there</t>
         </is>
       </c>
-      <c r="C313" t="n">
+      <c r="D313" t="n">
         <v>701170205</v>
       </c>
-      <c r="D313" t="n">
+      <c r="E313" t="n">
         <v>0.09211724012379392</v>
       </c>
     </row>
@@ -5446,15 +6391,18 @@
       <c r="A314" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B314" t="inlineStr">
+      <c r="B314" s="2" t="n">
+        <v>44883</v>
+      </c>
+      <c r="C314" t="inlineStr">
         <is>
           <t>glyph</t>
         </is>
       </c>
-      <c r="C314" t="n">
+      <c r="D314" t="n">
         <v>632257</v>
       </c>
-      <c r="D314" t="n">
+      <c r="E314" t="n">
         <v>0.09925362914270063</v>
       </c>
     </row>
@@ -5462,15 +6410,18 @@
       <c r="A315" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B315" t="inlineStr">
+      <c r="B315" s="2" t="n">
+        <v>44884</v>
+      </c>
+      <c r="C315" t="inlineStr">
         <is>
           <t>avert</t>
         </is>
       </c>
-      <c r="C315" t="n">
+      <c r="D315" t="n">
         <v>767435</v>
       </c>
-      <c r="D315" t="n">
+      <c r="E315" t="n">
         <v>0.09697361509555942</v>
       </c>
     </row>
@@ -5478,15 +6429,18 @@
       <c r="A316" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B316" t="inlineStr">
+      <c r="B316" s="2" t="n">
+        <v>44885</v>
+      </c>
+      <c r="C316" t="inlineStr">
         <is>
           <t>brave</t>
         </is>
       </c>
-      <c r="C316" t="n">
+      <c r="D316" t="n">
         <v>5221356</v>
       </c>
-      <c r="D316" t="n">
+      <c r="E316" t="n">
         <v>0.09587451482533713</v>
       </c>
     </row>
@@ -5494,15 +6448,18 @@
       <c r="A317" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B317" t="inlineStr">
+      <c r="B317" s="2" t="n">
+        <v>44886</v>
+      </c>
+      <c r="C317" t="inlineStr">
         <is>
           <t>axiom</t>
         </is>
       </c>
-      <c r="C317" t="n">
+      <c r="D317" t="n">
         <v>1495473</v>
       </c>
-      <c r="D317" t="n">
+      <c r="E317" t="n">
         <v>0.09807312252964427</v>
       </c>
     </row>
@@ -5510,15 +6467,18 @@
       <c r="A318" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B318" t="inlineStr">
+      <c r="B318" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="C318" t="inlineStr">
         <is>
           <t>prime</t>
         </is>
       </c>
-      <c r="C318" t="n">
+      <c r="D318" t="n">
         <v>38308402</v>
       </c>
-      <c r="D318" t="n">
+      <c r="E318" t="n">
         <v>0.09235703611910923</v>
       </c>
     </row>
@@ -5526,15 +6486,18 @@
       <c r="A319" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B319" t="inlineStr">
+      <c r="B319" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="C319" t="inlineStr">
         <is>
           <t>drive</t>
         </is>
       </c>
-      <c r="C319" t="n">
+      <c r="D319" t="n">
         <v>107799371</v>
       </c>
-      <c r="D319" t="n">
+      <c r="E319" t="n">
         <v>0.09192513970670967</v>
       </c>
     </row>
@@ -5542,15 +6505,18 @@
       <c r="A320" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B320" t="inlineStr">
+      <c r="B320" s="2" t="n">
+        <v>44889</v>
+      </c>
+      <c r="C320" t="inlineStr">
         <is>
           <t>feast</t>
         </is>
       </c>
-      <c r="C320" t="n">
+      <c r="D320" t="n">
         <v>4166016</v>
       </c>
-      <c r="D320" t="n">
+      <c r="E320" t="n">
         <v>0.09835769716657643</v>
       </c>
     </row>
@@ -5558,15 +6524,18 @@
       <c r="A321" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="B321" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C321" t="inlineStr">
         <is>
           <t>itchy</t>
         </is>
       </c>
-      <c r="C321" t="n">
+      <c r="D321" t="n">
         <v>1181967</v>
       </c>
-      <c r="D321" t="n">
+      <c r="E321" t="n">
         <v>0.09625160143819482</v>
       </c>
     </row>
@@ -5574,15 +6543,18 @@
       <c r="A322" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="B322" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="C322" t="inlineStr">
         <is>
           <t>happy</t>
         </is>
       </c>
-      <c r="C322" t="n">
+      <c r="D322" t="n">
         <v>63471922</v>
       </c>
-      <c r="D322" t="n">
+      <c r="E322" t="n">
         <v>0.09346980877568833</v>
       </c>
     </row>
@@ -5590,15 +6562,18 @@
       <c r="A323" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B323" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="C323" t="inlineStr">
         <is>
           <t>tepid</t>
         </is>
       </c>
-      <c r="C323" t="n">
+      <c r="D323" t="n">
         <v>220695</v>
       </c>
-      <c r="D323" t="n">
+      <c r="E323" t="n">
         <v>0.09535142604890408</v>
       </c>
     </row>
@@ -5606,15 +6581,18 @@
       <c r="A324" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="B324" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="C324" t="inlineStr">
         <is>
           <t>undue</t>
         </is>
       </c>
-      <c r="C324" t="n">
+      <c r="D324" t="n">
         <v>1377567</v>
       </c>
-      <c r="D324" t="n">
+      <c r="E324" t="n">
         <v>0.0975609756097561</v>
       </c>
     </row>
@@ -5622,15 +6600,18 @@
       <c r="A325" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B325" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="C325" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="C325" t="n">
+      <c r="D325" t="n">
         <v>152978354</v>
       </c>
-      <c r="D325" t="n">
+      <c r="E325" t="n">
         <v>0.9361619307123394</v>
       </c>
     </row>
@@ -5638,15 +6619,18 @@
       <c r="A326" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B326" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C326" t="inlineStr">
         <is>
           <t>eject</t>
         </is>
       </c>
-      <c r="C326" t="n">
+      <c r="D326" t="n">
         <v>935010</v>
       </c>
-      <c r="D326" t="n">
+      <c r="E326" t="n">
         <v>0.0972246773908432</v>
       </c>
     </row>
@@ -5654,15 +6638,18 @@
       <c r="A327" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="B327" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C327" t="inlineStr">
         <is>
           <t>chafe</t>
         </is>
       </c>
-      <c r="C327" t="n">
+      <c r="D327" t="n">
         <v>118832</v>
       </c>
-      <c r="D327" t="n">
+      <c r="E327" t="n">
         <v>0.09506613649273715</v>
       </c>
     </row>
@@ -5670,15 +6657,18 @@
       <c r="A328" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B328" t="inlineStr">
+      <c r="B328" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="C328" t="inlineStr">
         <is>
           <t>torso</t>
         </is>
       </c>
-      <c r="C328" t="n">
+      <c r="D328" t="n">
         <v>1769562</v>
       </c>
-      <c r="D328" t="n">
+      <c r="E328" t="n">
         <v>0.09466761613538306</v>
       </c>
     </row>
@@ -5686,15 +6676,18 @@
       <c r="A329" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B329" t="inlineStr">
+      <c r="B329" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="C329" t="inlineStr">
         <is>
           <t>adore</t>
         </is>
       </c>
-      <c r="C329" t="n">
+      <c r="D329" t="n">
         <v>1176240</v>
       </c>
-      <c r="D329" t="n">
+      <c r="E329" t="n">
         <v>0.09375610900418345</v>
       </c>
     </row>
@@ -5702,15 +6695,18 @@
       <c r="A330" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="B330" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C330" t="inlineStr">
         <is>
           <t>woken</t>
         </is>
       </c>
-      <c r="C330" t="n">
+      <c r="D330" t="n">
         <v>364304</v>
       </c>
-      <c r="D330" t="n">
+      <c r="E330" t="n">
         <v>0.09502008379043753</v>
       </c>
     </row>
@@ -5718,15 +6714,18 @@
       <c r="A331" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B331" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="C331" t="inlineStr">
         <is>
           <t>amber</t>
         </is>
       </c>
-      <c r="C331" t="n">
+      <c r="D331" t="n">
         <v>11065507</v>
       </c>
-      <c r="D331" t="n">
+      <c r="E331" t="n">
         <v>0.09617593262154919</v>
       </c>
     </row>
@@ -5734,15 +6733,18 @@
       <c r="A332" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="B332" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="C332" t="inlineStr">
         <is>
           <t>joust</t>
         </is>
       </c>
-      <c r="C332" t="n">
+      <c r="D332" t="n">
         <v>160309</v>
       </c>
-      <c r="D332" t="n">
+      <c r="E332" t="n">
         <v>0.09590746616329973</v>
       </c>
     </row>
@@ -5750,15 +6752,18 @@
       <c r="A333" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B333" t="inlineStr">
+      <c r="B333" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="C333" t="inlineStr">
         <is>
           <t>infer</t>
         </is>
       </c>
-      <c r="C333" t="n">
+      <c r="D333" t="n">
         <v>1104540</v>
       </c>
-      <c r="D333" t="n">
+      <c r="E333" t="n">
         <v>0.08788150384452097</v>
       </c>
     </row>
@@ -5766,15 +6771,18 @@
       <c r="A334" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B334" t="inlineStr">
+      <c r="B334" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="C334" t="inlineStr">
         <is>
           <t>braid</t>
         </is>
       </c>
-      <c r="C334" t="n">
+      <c r="D334" t="n">
         <v>981945</v>
       </c>
-      <c r="D334" t="n">
+      <c r="E334" t="n">
         <v>0.09158206429780034</v>
       </c>
     </row>
@@ -5782,15 +6790,18 @@
       <c r="A335" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B335" t="inlineStr">
+      <c r="B335" s="2" t="n">
+        <v>44905</v>
+      </c>
+      <c r="C335" t="inlineStr">
         <is>
           <t>knock</t>
         </is>
       </c>
-      <c r="C335" t="n">
+      <c r="D335" t="n">
         <v>5196013</v>
       </c>
-      <c r="D335" t="n">
+      <c r="E335" t="n">
         <v>0.09646925367490665</v>
       </c>
     </row>
@@ -5798,15 +6809,18 @@
       <c r="A336" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B336" t="inlineStr">
+      <c r="B336" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="C336" t="inlineStr">
         <is>
           <t>apply</t>
         </is>
       </c>
-      <c r="C336" t="n">
+      <c r="D336" t="n">
         <v>76341478</v>
       </c>
-      <c r="D336" t="n">
+      <c r="E336" t="n">
         <v>0.09399728938049229</v>
       </c>
     </row>
@@ -5814,15 +6828,18 @@
       <c r="A337" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B337" t="inlineStr">
+      <c r="B337" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="C337" t="inlineStr">
         <is>
           <t>spoke</t>
         </is>
       </c>
-      <c r="C337" t="n">
+      <c r="D337" t="n">
         <v>11577917</v>
       </c>
-      <c r="D337" t="n">
+      <c r="E337" t="n">
         <v>0.09227832870005394</v>
       </c>
     </row>
@@ -5830,15 +6847,18 @@
       <c r="A338" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B338" t="inlineStr">
+      <c r="B338" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="C338" t="inlineStr">
         <is>
           <t>usual</t>
         </is>
       </c>
-      <c r="C338" t="n">
+      <c r="D338" t="n">
         <v>17044981</v>
       </c>
-      <c r="D338" t="n">
+      <c r="E338" t="n">
         <v>0.09834805993084902</v>
       </c>
     </row>
@@ -5846,15 +6866,18 @@
       <c r="A339" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B339" t="inlineStr">
+      <c r="B339" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="C339" t="inlineStr">
         <is>
           <t>rival</t>
         </is>
       </c>
-      <c r="C339" t="n">
+      <c r="D339" t="n">
         <v>4298220</v>
       </c>
-      <c r="D339" t="n">
+      <c r="E339" t="n">
         <v>0.09591450216450216</v>
       </c>
     </row>
@@ -5862,15 +6885,18 @@
       <c r="A340" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B340" t="inlineStr">
+      <c r="B340" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C340" t="inlineStr">
         <is>
           <t>chord</t>
         </is>
       </c>
-      <c r="C340" t="n">
+      <c r="D340" t="n">
         <v>3123447</v>
       </c>
-      <c r="D340" t="n">
+      <c r="E340" t="n">
         <v>0.09348137535816618</v>
       </c>
     </row>
@@ -5878,15 +6904,18 @@
       <c r="A341" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="C341" t="inlineStr">
         <is>
           <t>taper</t>
         </is>
       </c>
-      <c r="C341" t="n">
+      <c r="D341" t="n">
         <v>1294069</v>
       </c>
-      <c r="D341" t="n">
+      <c r="E341" t="n">
         <v>0.09510060452945954</v>
       </c>
     </row>
@@ -5894,15 +6923,18 @@
       <c r="A342" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="C342" t="inlineStr">
         <is>
           <t>slate</t>
         </is>
       </c>
-      <c r="C342" t="n">
+      <c r="D342" t="n">
         <v>3813904</v>
       </c>
-      <c r="D342" t="n">
+      <c r="E342" t="n">
         <v>0.09311803152633602</v>
       </c>
     </row>
@@ -5910,15 +6942,18 @@
       <c r="A343" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C343" t="inlineStr">
         <is>
           <t>third</t>
         </is>
       </c>
-      <c r="C343" t="n">
+      <c r="D343" t="n">
         <v>95489240</v>
       </c>
-      <c r="D343" t="n">
+      <c r="E343" t="n">
         <v>0.09367361312507769</v>
       </c>
     </row>
@@ -5926,15 +6961,18 @@
       <c r="A344" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="2" t="n">
+        <v>44916</v>
+      </c>
+      <c r="C344" t="inlineStr">
         <is>
           <t>lunar</t>
         </is>
       </c>
-      <c r="C344" t="n">
+      <c r="D344" t="n">
         <v>3611744</v>
       </c>
-      <c r="D344" t="n">
+      <c r="E344" t="n">
         <v>0.09179440937781785</v>
       </c>
     </row>
@@ -5942,15 +6980,18 @@
       <c r="A345" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="2" t="n">
+        <v>44917</v>
+      </c>
+      <c r="C345" t="inlineStr">
         <is>
           <t>excel</t>
         </is>
       </c>
-      <c r="C345" t="n">
+      <c r="D345" t="n">
         <v>14133468</v>
       </c>
-      <c r="D345" t="n">
+      <c r="E345" t="n">
         <v>0.0992679355783309</v>
       </c>
     </row>
@@ -5958,15 +6999,18 @@
       <c r="A346" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B346" t="inlineStr">
+      <c r="B346" s="2" t="n">
+        <v>44918</v>
+      </c>
+      <c r="C346" t="inlineStr">
         <is>
           <t>aorta</t>
         </is>
       </c>
-      <c r="C346" t="n">
+      <c r="D346" t="n">
         <v>641057</v>
       </c>
-      <c r="D346" t="n">
+      <c r="E346" t="n">
         <v>0.09627569859142089</v>
       </c>
     </row>
@@ -5974,15 +7018,18 @@
       <c r="A347" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B347" t="inlineStr">
+      <c r="B347" s="2" t="n">
+        <v>44919</v>
+      </c>
+      <c r="C347" t="inlineStr">
         <is>
           <t>poise</t>
         </is>
       </c>
-      <c r="C347" t="n">
+      <c r="D347" t="n">
         <v>339263</v>
       </c>
-      <c r="D347" t="n">
+      <c r="E347" t="n">
         <v>0.09422612297224003</v>
       </c>
     </row>
@@ -5990,15 +7037,18 @@
       <c r="A348" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B348" t="inlineStr">
+      <c r="B348" s="2" t="n">
+        <v>44920</v>
+      </c>
+      <c r="C348" t="inlineStr">
         <is>
           <t>extra</t>
         </is>
       </c>
-      <c r="C348" t="n">
+      <c r="D348" t="n">
         <v>59377307</v>
       </c>
-      <c r="D348" t="n">
+      <c r="E348" t="n">
         <v>0.1004243281471004</v>
       </c>
     </row>
@@ -6006,15 +7056,18 @@
       <c r="A349" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B349" t="inlineStr">
+      <c r="B349" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="C349" t="inlineStr">
         <is>
           <t>judge</t>
         </is>
       </c>
-      <c r="C349" t="n">
+      <c r="D349" t="n">
         <v>30905832</v>
       </c>
-      <c r="D349" t="n">
+      <c r="E349" t="n">
         <v>0.1020938483833891</v>
       </c>
     </row>
@@ -6022,15 +7075,18 @@
       <c r="A350" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B350" t="inlineStr">
+      <c r="B350" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="C350" t="inlineStr">
         <is>
           <t>condo</t>
         </is>
       </c>
-      <c r="C350" t="n">
+      <c r="D350" t="n">
         <v>6444848</v>
       </c>
-      <c r="D350" t="n">
+      <c r="E350" t="n">
         <v>0.09636476842760669</v>
       </c>
     </row>
@@ -6038,15 +7094,18 @@
       <c r="A351" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B351" t="inlineStr">
+      <c r="B351" s="2" t="n">
+        <v>44923</v>
+      </c>
+      <c r="C351" t="inlineStr">
         <is>
           <t>impel</t>
         </is>
       </c>
-      <c r="C351" t="n">
+      <c r="D351" t="n">
         <v>86447</v>
       </c>
-      <c r="D351" t="n">
+      <c r="E351" t="n">
         <v>0.09608134920634921</v>
       </c>
     </row>
@@ -6054,15 +7113,18 @@
       <c r="A352" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B352" t="inlineStr">
+      <c r="B352" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C352" t="inlineStr">
         <is>
           <t>havoc</t>
         </is>
       </c>
-      <c r="C352" t="n">
+      <c r="D352" t="n">
         <v>1692191</v>
       </c>
-      <c r="D352" t="n">
+      <c r="E352" t="n">
         <v>0.09594520273986301</v>
       </c>
     </row>
@@ -6070,15 +7132,18 @@
       <c r="A353" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B353" t="inlineStr">
+      <c r="B353" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="C353" t="inlineStr">
         <is>
           <t>molar</t>
         </is>
       </c>
-      <c r="C353" t="n">
+      <c r="D353" t="n">
         <v>650262</v>
       </c>
-      <c r="D353" t="n">
+      <c r="E353" t="n">
         <v>0.09304848141860027</v>
       </c>
     </row>
@@ -6086,15 +7151,18 @@
       <c r="A354" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B354" t="inlineStr">
+      <c r="B354" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C354" t="inlineStr">
         <is>
           <t>manly</t>
         </is>
       </c>
-      <c r="C354" t="n">
+      <c r="D354" t="n">
         <v>1260481</v>
       </c>
-      <c r="D354" t="n">
+      <c r="E354" t="n">
         <v>0.09317958783120707</v>
       </c>
     </row>

--- a/hardmode-stats.xlsx
+++ b/hardmode-stats.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.01689197569142999</v>
+        <v>1.689197569142999</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.01736894476025339</v>
+        <v>1.736894476025339</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.0209123604840561</v>
+        <v>2.09123604840561</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.02092706330389979</v>
+        <v>2.092706330389979</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.01960618663893943</v>
+        <v>1.960618663893943</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.02520229646037702</v>
+        <v>2.520229646037702</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.02351254395695169</v>
+        <v>2.351254395695169</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.02261025840295318</v>
+        <v>2.261025840295317</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.02363925213134932</v>
+        <v>2.363925213134932</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.02538288095698862</v>
+        <v>2.538288095698862</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.0280878026702874</v>
+        <v>2.80878026702874</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.02527955755429011</v>
+        <v>2.527955755429011</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.02700808315981046</v>
+        <v>2.700808315981046</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.02706711431462735</v>
+        <v>2.706711431462735</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.02836568125256223</v>
+        <v>2.836568125256223</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.02826669235243342</v>
+        <v>2.826669235243342</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.0322316868058193</v>
+        <v>3.22316868058193</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.03150460919523596</v>
+        <v>3.150460919523596</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.03361358434651461</v>
+        <v>3.361358434651461</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.03450717807162402</v>
+        <v>3.450717807162402</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.03753939818431615</v>
+        <v>3.753939818431615</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.03700913096226294</v>
+        <v>3.700913096226294</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.03910589880110083</v>
+        <v>3.910589880110083</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.03910475398020591</v>
+        <v>3.910475398020591</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.03869045080090883</v>
+        <v>3.869045080090883</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.03925030670778209</v>
+        <v>3.925030670778209</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.04078721075672295</v>
+        <v>4.078721075672295</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.04118394457279963</v>
+        <v>4.118394457279964</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.04287796608048846</v>
+        <v>4.287796608048846</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.04410034145933676</v>
+        <v>4.410034145933675</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.04628280389136378</v>
+        <v>4.628280389136378</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.04570896632127434</v>
+        <v>4.570896632127434</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.04534141964554707</v>
+        <v>4.534141964554707</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.04422136928779976</v>
+        <v>4.422136928779976</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.03812772123116209</v>
+        <v>3.812772123116209</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.0344961742964596</v>
+        <v>3.449617429645961</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.01170933178602448</v>
+        <v>1.170933178602449</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.03954940521028904</v>
+        <v>3.954940521028904</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.03593365666560124</v>
+        <v>3.593365666560124</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.03707014679640067</v>
+        <v>3.707014679640067</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.03733008189986638</v>
+        <v>3.733008189986638</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.03853143214773147</v>
+        <v>3.853143214773147</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.03981553305209916</v>
+        <v>3.981553305209916</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.04059186406445522</v>
+        <v>4.059186406445522</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.03905916457085864</v>
+        <v>3.905916457085864</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.03856297901787463</v>
+        <v>3.856297901787463</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.0411094619131337</v>
+        <v>4.11094619131337</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.04150809417809585</v>
+        <v>4.150809417809585</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.04566893441758139</v>
+        <v>4.566893441758139</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.0406139400796415</v>
+        <v>4.061394007964149</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.04168313945362261</v>
+        <v>4.168313945362261</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.04190064278716337</v>
+        <v>4.190064278716337</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.04404569058495775</v>
+        <v>4.404569058495776</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.04202422037745236</v>
+        <v>4.202422037745236</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.04360089659942171</v>
+        <v>4.360089659942171</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.0461198645265793</v>
+        <v>4.61198645265793</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.04525979251397377</v>
+        <v>4.525979251397377</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.04533955488460395</v>
+        <v>4.533955488460395</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.04493698392003477</v>
+        <v>4.493698392003477</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.0470760050705393</v>
+        <v>4.70760050705393</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.04675444377821496</v>
+        <v>4.675444377821496</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.04768196702476015</v>
+        <v>4.768196702476015</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.05478265863776734</v>
+        <v>5.478265863776734</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.04870111273685362</v>
+        <v>4.870111273685362</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.0498060589848191</v>
+        <v>4.98060589848191</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.05055391950638059</v>
+        <v>5.055391950638059</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.0494146064923221</v>
+        <v>4.94146064923221</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.05156617215041128</v>
+        <v>5.156617215041128</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.05232712883936334</v>
+        <v>5.232712883936334</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.0517377523216371</v>
+        <v>5.17377523216371</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.05447473306421173</v>
+        <v>5.447473306421173</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.05430778065257086</v>
+        <v>5.430778065257086</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.05298440415582022</v>
+        <v>5.298440415582022</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.05498841790448361</v>
+        <v>5.498841790448362</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.05456516886181714</v>
+        <v>5.456516886181713</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.05511457064105142</v>
+        <v>5.511457064105143</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.05700513325832074</v>
+        <v>5.700513325832074</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.06271278267907188</v>
+        <v>6.271278267907188</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.0600418207750139</v>
+        <v>6.00418207750139</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.06110100405305822</v>
+        <v>6.110100405305822</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.05697994230898236</v>
+        <v>5.697994230898236</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.05892284635668621</v>
+        <v>5.892284635668621</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.06263173074789785</v>
+        <v>6.263173074789785</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.06161854985896797</v>
+        <v>6.161854985896797</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.06006615982821659</v>
+        <v>6.006615982821659</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.063686442038994</v>
+        <v>6.3686442038994</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.06126447154283422</v>
+        <v>6.126447154283422</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.06346616566135997</v>
+        <v>6.346616566135997</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.0641460765680152</v>
+        <v>6.41460765680152</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.06432520104279006</v>
+        <v>6.432520104279006</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.06382918431828165</v>
+        <v>6.382918431828164</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.06360926905595708</v>
+        <v>6.360926905595708</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.06253119034228183</v>
+        <v>6.253119034228183</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.06588483811050005</v>
+        <v>6.588483811050006</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.06331206976076305</v>
+        <v>6.331206976076305</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.06356740091679851</v>
+        <v>6.356740091679851</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.06484027924687963</v>
+        <v>6.484027924687963</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.06555838481125617</v>
+        <v>6.555838481125617</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.06514673062498264</v>
+        <v>6.514673062498264</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
@@ -2863,7 +2863,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.0656911727486619</v>
+        <v>6.569117274866191</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.06532126745148288</v>
+        <v>6.532126745148288</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.07528076474531446</v>
+        <v>7.528076474531447</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.06662287882204163</v>
+        <v>6.662287882204162</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.07105303455668419</v>
+        <v>7.105303455668419</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.06483997584541062</v>
+        <v>6.483997584541062</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.06783030911868734</v>
+        <v>6.783030911868734</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.06919303862414317</v>
+        <v>6.919303862414317</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.07153624328221261</v>
+        <v>7.153624328221261</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.0662123253807451</v>
+        <v>6.62123253807451</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.06632513868259117</v>
+        <v>6.632513868259117</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.07097579068042349</v>
+        <v>7.097579068042349</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.07371363362439255</v>
+        <v>7.371363362439255</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.07338587138478972</v>
+        <v>7.338587138478972</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.06827472998546678</v>
+        <v>6.827472998546678</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.06922870759872753</v>
+        <v>6.922870759872753</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.06722041763341068</v>
+        <v>6.722041763341068</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.07342490608171763</v>
+        <v>7.342490608171763</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.07185550254286163</v>
+        <v>7.185550254286163</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.07028123237261275</v>
+        <v>7.028123237261275</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.07247855704790535</v>
+        <v>7.247855704790535</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.06910898214366032</v>
+        <v>6.910898214366032</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.07376498414234263</v>
+        <v>7.376498414234263</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.07159580092138056</v>
+        <v>7.159580092138055</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.07161074623709909</v>
+        <v>7.16107462370991</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.07117355158858027</v>
+        <v>7.117355158858027</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.07224308637760328</v>
+        <v>7.224308637760328</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.07394770170602696</v>
+        <v>7.394770170602697</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.07577287158553893</v>
+        <v>7.577287158553893</v>
       </c>
       <c r="F129" t="n">
         <v>1</v>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.07270721981844405</v>
+        <v>7.270721981844405</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.07498681238418568</v>
+        <v>7.498681238418568</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.07278623801466441</v>
+        <v>7.278623801466441</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -3631,7 +3631,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.07495277889073322</v>
+        <v>7.495277889073322</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.07443050857604694</v>
+        <v>7.443050857604694</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.07256770089384323</v>
+        <v>7.256770089384323</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.0738510635095061</v>
+        <v>7.385106350950609</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.07587567055853582</v>
+        <v>7.587567055853582</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.07708496085965276</v>
+        <v>7.708496085965276</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.07490346268278787</v>
+        <v>7.490346268278787</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.07583873696081195</v>
+        <v>7.583873696081195</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.07594599543857897</v>
+        <v>7.594599543857897</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.07802741075669875</v>
+        <v>7.802741075669875</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.07776082927389329</v>
+        <v>7.776082927389329</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.07650395105786388</v>
+        <v>7.650395105786388</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.07585269050141522</v>
+        <v>7.585269050141521</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.07784196612160971</v>
+        <v>7.78419661216097</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.0757591967110391</v>
+        <v>7.57591967110391</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.07606886016854608</v>
+        <v>7.606886016854608</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.07629807183897917</v>
+        <v>7.629807183897917</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.07777283764834639</v>
+        <v>7.777283764834639</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.07526571849943212</v>
+        <v>7.526571849943211</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.07549241306983909</v>
+        <v>7.549241306983909</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.07772409196934356</v>
+        <v>7.772409196934356</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.07808436867957237</v>
+        <v>7.808436867957237</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.0786596866700027</v>
+        <v>7.86596866700027</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.07626490720485499</v>
+        <v>7.626490720485498</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.07698598565109104</v>
+        <v>7.698598565109103</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.0794090181430096</v>
+        <v>7.94090181430096</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.07842611941631392</v>
+        <v>7.842611941631391</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.0769605090772974</v>
+        <v>7.69605090772974</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.07776456599286563</v>
+        <v>7.776456599286563</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.08687639021290118</v>
+        <v>8.687639021290119</v>
       </c>
       <c r="F162" t="n">
         <v>2</v>
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.07946314059141242</v>
+        <v>7.946314059141242</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.07824261152048173</v>
+        <v>7.824261152048173</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.0786247234824341</v>
+        <v>7.86247234824341</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.0810368349249659</v>
+        <v>8.103683492496589</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.0775357270621905</v>
+        <v>7.75357270621905</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.07884702767844795</v>
+        <v>7.884702767844795</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.07962854477207143</v>
+        <v>7.962854477207143</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -4519,7 +4519,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.07837462834489593</v>
+        <v>7.837462834489593</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.08019005543283457</v>
+        <v>8.019005543283457</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.08124788637132228</v>
+        <v>8.124788637132228</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.08669076569175156</v>
+        <v>8.669076569175155</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.08499954763412648</v>
+        <v>8.499954763412648</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.08025736539112767</v>
+        <v>8.025736539112767</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.08416137914521729</v>
+        <v>8.416137914521729</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.08548634095736798</v>
+        <v>8.548634095736798</v>
       </c>
       <c r="F177" t="n">
         <v>1</v>
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.08420682377769961</v>
+        <v>8.42068237776996</v>
       </c>
       <c r="F178" t="n">
         <v>1</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.08084705460092423</v>
+        <v>8.084705460092422</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.08552298073673538</v>
+        <v>8.552298073673539</v>
       </c>
       <c r="F180" t="n">
         <v>2</v>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.08457161287349967</v>
+        <v>8.457161287349967</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.08139045928140914</v>
+        <v>8.139045928140915</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.0835138234169958</v>
+        <v>8.35138234169958</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.08361852339356228</v>
+        <v>8.361852339356227</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.0845973609569614</v>
+        <v>8.45973609569614</v>
       </c>
       <c r="F185" t="n">
         <v>2</v>
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.08249840119377531</v>
+        <v>8.249840119377531</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.08059075379492281</v>
+        <v>8.059075379492281</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.08355323189227848</v>
+        <v>8.355323189227848</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.08546158943773258</v>
+        <v>8.546158943773257</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -4999,7 +4999,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.0846036781964972</v>
+        <v>8.46036781964972</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.08444623968089672</v>
+        <v>8.444623968089672</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.0833372480856861</v>
+        <v>8.33372480856861</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.08465475080041344</v>
+        <v>8.465475080041344</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.08724577976655538</v>
+        <v>8.724577976655539</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.08614337614491122</v>
+        <v>8.614337614491122</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.08503677579526207</v>
+        <v>8.503677579526208</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.08460931763170061</v>
+        <v>8.460931763170061</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.0854243588777535</v>
+        <v>8.542435887775349</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.08511777301927195</v>
+        <v>8.511777301927195</v>
       </c>
       <c r="F199" t="n">
         <v>1</v>
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.08953052002757142</v>
+        <v>8.953052002757142</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -5263,7 +5263,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.08558253438932889</v>
+        <v>8.558253438932889</v>
       </c>
       <c r="F201" t="n">
         <v>2</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.08585485854858549</v>
+        <v>8.585485854858549</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.08502024291497975</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.08489277969640993</v>
+        <v>8.489277969640993</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -5359,7 +5359,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.0858343949044586</v>
+        <v>8.58343949044586</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.09009328459985816</v>
+        <v>9.009328459985817</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.09682316881033544</v>
+        <v>9.682316881033543</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
@@ -5431,7 +5431,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.08668351528099841</v>
+        <v>8.668351528099841</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.08960756399580971</v>
+        <v>8.960756399580971</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.09178045515394913</v>
+        <v>9.178045515394913</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -5503,7 +5503,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.0874076362606524</v>
+        <v>8.74076362606524</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.08806559368357121</v>
+        <v>8.806559368357121</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.08973420430228629</v>
+        <v>8.973420430228629</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.08334483615382492</v>
+        <v>8.334483615382492</v>
       </c>
       <c r="F214" t="n">
         <v>1</v>
@@ -5599,7 +5599,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.08795878259945822</v>
+        <v>8.795878259945821</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -5623,7 +5623,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.08694136886410551</v>
+        <v>8.694136886410551</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.08994678051348032</v>
+        <v>8.994678051348032</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.09028801451411725</v>
+        <v>9.028801451411725</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.09376974598761531</v>
+        <v>9.376974598761532</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -5719,7 +5719,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.08989145183175033</v>
+        <v>8.989145183175033</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.08793619142572283</v>
+        <v>8.793619142572282</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.08859416445623342</v>
+        <v>8.859416445623342</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.09078939836281413</v>
+        <v>9.078939836281414</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -5815,7 +5815,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.08794347122037391</v>
+        <v>8.79434712203739</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.08495228134396653</v>
+        <v>8.495228134396653</v>
       </c>
       <c r="F225" t="n">
         <v>1</v>
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.08945166633910773</v>
+        <v>8.945166633910773</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.08702073116362015</v>
+        <v>8.702073116362016</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.08742436436257414</v>
+        <v>8.742436436257414</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.08685459940652819</v>
+        <v>8.685459940652819</v>
       </c>
       <c r="F229" t="n">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.08642512997795139</v>
+        <v>8.642512997795139</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.08774052310173983</v>
+        <v>8.774052310173982</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.08911366473544381</v>
+        <v>8.911366473544382</v>
       </c>
       <c r="F232" t="n">
         <v>1</v>
@@ -6031,7 +6031,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.09485668895214139</v>
+        <v>9.48566889521414</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.08961232169423296</v>
+        <v>8.961232169423296</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.0893939393939394</v>
+        <v>8.939393939393939</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
@@ -6103,7 +6103,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.08957926604985429</v>
+        <v>8.957926604985429</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.09177820267686425</v>
+        <v>9.177820267686425</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.08814802373754339</v>
+        <v>8.81480237375434</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.09223814561892854</v>
+        <v>9.223814561892855</v>
       </c>
       <c r="F239" t="n">
         <v>1</v>
@@ -6199,7 +6199,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.09023049534636766</v>
+        <v>9.023049534636767</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.09073412152873248</v>
+        <v>9.073412152873248</v>
       </c>
       <c r="F241" t="n">
         <v>1</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.09231991201808518</v>
+        <v>9.231991201808517</v>
       </c>
       <c r="F242" t="n">
         <v>1</v>
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.09270134228187919</v>
+        <v>9.270134228187919</v>
       </c>
       <c r="F243" t="n">
         <v>1</v>
@@ -6295,7 +6295,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.09389274763781991</v>
+        <v>9.389274763781991</v>
       </c>
       <c r="F244" t="n">
         <v>1</v>
@@ -6319,7 +6319,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.09042024120353102</v>
+        <v>9.042024120353103</v>
       </c>
       <c r="F245" t="n">
         <v>1</v>
@@ -6343,7 +6343,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.09498238533365257</v>
+        <v>9.498238533365257</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.09592283142682971</v>
+        <v>9.592283142682971</v>
       </c>
       <c r="F247" t="n">
         <v>1</v>
@@ -6391,7 +6391,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.09891240951041273</v>
+        <v>9.891240951041274</v>
       </c>
       <c r="F248" t="n">
         <v>1</v>
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.09173814286198596</v>
+        <v>9.173814286198596</v>
       </c>
       <c r="F249" t="n">
         <v>1</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.09140688196129675</v>
+        <v>9.140688196129675</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -6463,7 +6463,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.09030110364683301</v>
+        <v>9.030110364683301</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.1106971508215176</v>
+        <v>11.06971508215176</v>
       </c>
       <c r="F252" t="n">
         <v>1</v>
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.09195643066610809</v>
+        <v>9.19564306661081</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.09177693190743762</v>
+        <v>9.177693190743762</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.0978601997146933</v>
+        <v>9.786019971469329</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.09089746459059372</v>
+        <v>9.089746459059372</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.09069301976482362</v>
+        <v>9.069301976482363</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.09052387171673197</v>
+        <v>9.052387171673198</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.09181503697356311</v>
+        <v>9.181503697356311</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.0938768038563627</v>
+        <v>9.387680385636269</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.09232944747189073</v>
+        <v>9.232944747189073</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.09096070144452154</v>
+        <v>9.096070144452154</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
@@ -6751,7 +6751,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.09320639018880103</v>
+        <v>9.320639018880103</v>
       </c>
       <c r="F263" t="n">
         <v>1</v>
@@ -6775,7 +6775,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.09590177005262318</v>
+        <v>9.590177005262317</v>
       </c>
       <c r="F264" t="n">
         <v>1</v>
@@ -6799,7 +6799,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.09282409685992715</v>
+        <v>9.282409685992715</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
@@ -6823,7 +6823,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.09156711398648432</v>
+        <v>9.156711398648431</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.09559605701723282</v>
+        <v>9.559605701723282</v>
       </c>
       <c r="F267" t="n">
         <v>1</v>
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.09222946024993353</v>
+        <v>9.222946024993353</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -6895,7 +6895,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.09195366699702676</v>
+        <v>9.195366699702676</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
@@ -6919,7 +6919,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.0955831823577185</v>
+        <v>9.55831823577185</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.09184551995572228</v>
+        <v>9.184551995572228</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.09784331289189004</v>
+        <v>9.784331289189003</v>
       </c>
       <c r="F272" t="n">
         <v>1</v>
@@ -6991,7 +6991,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.09819736108530012</v>
+        <v>9.819736108530012</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
@@ -7015,7 +7015,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.09391720642072655</v>
+        <v>9.391720642072656</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.09874246595728849</v>
+        <v>9.874246595728849</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.0963079615048119</v>
+        <v>9.63079615048119</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.1010943020822613</v>
+        <v>10.10943020822613</v>
       </c>
       <c r="F277" t="n">
         <v>1</v>
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.0984299738941795</v>
+        <v>9.842997389417949</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.0952051477201965</v>
+        <v>9.52051477201965</v>
       </c>
       <c r="F279" t="n">
         <v>1</v>
@@ -7159,7 +7159,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.1027201263033253</v>
+        <v>10.27201263033253</v>
       </c>
       <c r="F280" t="n">
         <v>1</v>
@@ -7183,7 +7183,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.09369972750254441</v>
+        <v>9.369972750254441</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.09482234801240845</v>
+        <v>9.482234801240844</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.0980357891793653</v>
+        <v>9.80357891793653</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.09865122519596074</v>
+        <v>9.865122519596074</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.09634320308966285</v>
+        <v>9.634320308966284</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.09756608583301324</v>
+        <v>9.756608583301324</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.09661669646541053</v>
+        <v>9.661669646541053</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
@@ -7351,7 +7351,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.1031797534068787</v>
+        <v>10.31797534068787</v>
       </c>
       <c r="F288" t="n">
         <v>2</v>
@@ -7375,7 +7375,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.09562303520226621</v>
+        <v>9.562303520226621</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.09729561703450419</v>
+        <v>9.72956170345042</v>
       </c>
       <c r="F290" t="n">
         <v>1</v>
@@ -7423,7 +7423,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.09659714599341383</v>
+        <v>9.659714599341383</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.09471549132529247</v>
+        <v>9.471549132529248</v>
       </c>
       <c r="F292" t="n">
         <v>1</v>
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.094463357821179</v>
+        <v>9.446335782117901</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.1008109397360471</v>
+        <v>10.08109397360471</v>
       </c>
       <c r="F294" t="n">
         <v>1</v>
@@ -7519,7 +7519,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.1011673151750973</v>
+        <v>10.11673151750973</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.09706392935315873</v>
+        <v>9.706392935315874</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0.1333357573994619</v>
+        <v>13.33357573994619</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
@@ -7591,7 +7591,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.09541019154318757</v>
+        <v>9.541019154318757</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.09538471949651485</v>
+        <v>9.538471949651486</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
@@ -7639,7 +7639,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.0938529088913282</v>
+        <v>9.38529088913282</v>
       </c>
       <c r="F300" t="n">
         <v>1</v>
@@ -7663,7 +7663,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.09249235114144505</v>
+        <v>9.249235114144504</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.09698081627397966</v>
+        <v>9.698081627397965</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.09346259963212752</v>
+        <v>9.346259963212752</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.09300701870429574</v>
+        <v>9.300701870429574</v>
       </c>
       <c r="F304" t="n">
         <v>1</v>
@@ -7759,7 +7759,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.09239580458183826</v>
+        <v>9.239580458183825</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.09374886227108895</v>
+        <v>9.374886227108895</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0.09379448313007348</v>
+        <v>9.379448313007348</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0.09553933495539335</v>
+        <v>9.553933495539335</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.1002591189954156</v>
+        <v>10.02591189954156</v>
       </c>
       <c r="F309" t="n">
         <v>1</v>
@@ -7879,7 +7879,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0.09296804341272234</v>
+        <v>9.296804341272233</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
@@ -7903,7 +7903,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>0.09645131938125569</v>
+        <v>9.645131938125569</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.09935095401939319</v>
+        <v>9.935095401939318</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0.09211724012379392</v>
+        <v>9.211724012379392</v>
       </c>
       <c r="F313" t="n">
         <v>1</v>
@@ -7975,7 +7975,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>0.09925362914270063</v>
+        <v>9.925362914270062</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0.09697361509555942</v>
+        <v>9.697361509555941</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.09587451482533713</v>
+        <v>9.587451482533712</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0.09807312252964427</v>
+        <v>9.807312252964428</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0.09235703611910923</v>
+        <v>9.235703611910923</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
@@ -8095,7 +8095,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.09192513970670967</v>
+        <v>9.192513970670966</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0.09835769716657643</v>
+        <v>9.835769716657643</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>0.09625160143819482</v>
+        <v>9.625160143819482</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>0.09346980877568833</v>
+        <v>9.346980877568834</v>
       </c>
       <c r="F322" t="n">
         <v>1</v>
@@ -8191,7 +8191,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.09535142604890408</v>
+        <v>9.535142604890408</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.0975609756097561</v>
+        <v>9.75609756097561</v>
       </c>
       <c r="F324" t="n">
         <v>1</v>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.9361619307123394</v>
+        <v>93.61619307123394</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.0972246773908432</v>
+        <v>9.722467739084321</v>
       </c>
       <c r="F326" t="n">
         <v>1</v>
@@ -8287,7 +8287,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0.09506613649273715</v>
+        <v>9.506613649273715</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.09466761613538306</v>
+        <v>9.466761613538306</v>
       </c>
       <c r="F328" t="n">
         <v>1</v>
@@ -8335,7 +8335,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.09375610900418345</v>
+        <v>9.375610900418344</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>0.09502008379043753</v>
+        <v>9.502008379043753</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.09617593262154919</v>
+        <v>9.617593262154919</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.09590746616329973</v>
+        <v>9.590746616329973</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>0.08788150384452097</v>
+        <v>8.788150384452097</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.09158206429780034</v>
+        <v>9.158206429780034</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.09646925367490665</v>
+        <v>9.646925367490665</v>
       </c>
       <c r="F335" t="n">
         <v>1</v>
@@ -8503,7 +8503,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.09399728938049229</v>
+        <v>9.399728938049229</v>
       </c>
       <c r="F336" t="n">
         <v>1</v>
@@ -8527,7 +8527,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0.09227832870005394</v>
+        <v>9.227832870005393</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.09834805993084902</v>
+        <v>9.834805993084903</v>
       </c>
       <c r="F338" t="n">
         <v>1</v>
@@ -8575,7 +8575,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.09591450216450216</v>
+        <v>9.591450216450216</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.09348137535816618</v>
+        <v>9.348137535816619</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.09510060452945954</v>
+        <v>9.510060452945954</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0.09311803152633602</v>
+        <v>9.311803152633601</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.09367361312507769</v>
+        <v>9.367361312507768</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.09179440937781785</v>
+        <v>9.179440937781786</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.0992679355783309</v>
+        <v>9.92679355783309</v>
       </c>
       <c r="F345" t="n">
         <v>1</v>
@@ -8743,7 +8743,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0.09627569859142089</v>
+        <v>9.627569859142088</v>
       </c>
       <c r="F346" t="n">
         <v>1</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.09422612297224003</v>
+        <v>9.422612297224003</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
@@ -8791,7 +8791,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.1004243281471004</v>
+        <v>10.04243281471004</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -8815,7 +8815,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.1020938483833891</v>
+        <v>10.20938483833891</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
@@ -8839,7 +8839,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.09636476842760669</v>
+        <v>9.636476842760668</v>
       </c>
       <c r="F350" t="n">
         <v>1</v>
@@ -8863,7 +8863,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.09608134920634921</v>
+        <v>9.608134920634921</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.09594520273986301</v>
+        <v>9.594520273986301</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
@@ -8911,7 +8911,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.09304848141860027</v>
+        <v>9.304848141860028</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>0.09317958783120707</v>
+        <v>9.317958783120707</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
